--- a/Lolipop/Salts_Lollipop.xlsx
+++ b/Lolipop/Salts_Lollipop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Dataviz\Lolipop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE994A2-A3B0-4D20-8DA1-7D12AFF204FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F31592C-0ECB-4229-A28D-DD7DD238D537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="2" r:id="rId1"/>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="183">
   <si>
     <t>PTC</t>
   </si>
@@ -1045,6 +1045,12 @@
   </si>
   <si>
     <t>F_tank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eta_t</t>
+  </si>
+  <si>
+    <t>ef_total</t>
   </si>
 </sst>
 </file>
@@ -1847,12 +1853,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1861,6 +1861,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2390,11 +2396,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,31 +2420,31 @@
   <sheetData>
     <row r="1" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="157" t="s">
+      <c r="G1" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="158"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="156"/>
       <c r="R1" s="103" t="s">
         <v>133</v>
       </c>
       <c r="S1" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="T1" s="156" t="s">
+      <c r="T1" s="154" t="s">
         <v>140</v>
       </c>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="158"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="156"/>
     </row>
     <row r="2" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
@@ -2859,10 +2865,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="154" t="s">
+      <c r="C8" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="155"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -2929,10 +2935,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="154" t="s">
+      <c r="C9" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="155"/>
+      <c r="D9" s="158"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -2999,10 +3005,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="155"/>
+      <c r="D10" s="158"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -3068,10 +3074,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="155"/>
+      <c r="D11" s="158"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -3138,10 +3144,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="155"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -3208,10 +3214,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="155"/>
+      <c r="D13" s="158"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -3278,10 +3284,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="155"/>
+      <c r="D14" s="158"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -3348,10 +3354,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="155"/>
+      <c r="D15" s="158"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -3415,10 +3421,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="155"/>
+      <c r="D16" s="158"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -3482,10 +3488,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="157" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="155"/>
+      <c r="D17" s="158"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -3551,10 +3557,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="154" t="s">
+      <c r="C18" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="155"/>
+      <c r="D18" s="158"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -3621,10 +3627,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="154" t="s">
+      <c r="C19" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="155"/>
+      <c r="D19" s="158"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -3753,11 +3759,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="G1:Q1"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -3767,6 +3768,11 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="G1:Q1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -3779,10 +3785,10 @@
   <dimension ref="A1:AS57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
+      <selection pane="bottomRight" activeCell="Y2" sqref="Y2:AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3813,29 +3819,29 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="157" t="s">
+      <c r="G1" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="157"/>
+      <c r="H1" s="155"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="157" t="s">
+      <c r="N1" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
       <c r="AB1" s="9"/>
@@ -4565,10 +4571,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="154" t="s">
+      <c r="C8" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="155"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -4680,10 +4686,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="154" t="s">
+      <c r="C9" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="155"/>
+      <c r="D9" s="158"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -4795,10 +4801,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="155"/>
+      <c r="D10" s="158"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -4909,10 +4915,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="155"/>
+      <c r="D11" s="158"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -5024,10 +5030,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="155"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -5139,10 +5145,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="155"/>
+      <c r="D13" s="158"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -5257,10 +5263,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="155"/>
+      <c r="D14" s="158"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -5375,10 +5381,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="155"/>
+      <c r="D15" s="158"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -5493,10 +5499,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="155"/>
+      <c r="D16" s="158"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -5611,10 +5617,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="157" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="155"/>
+      <c r="D17" s="158"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -5729,10 +5735,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="154" t="s">
+      <c r="C18" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="155"/>
+      <c r="D18" s="158"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -5847,10 +5853,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="154" t="s">
+      <c r="C19" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="155"/>
+      <c r="D19" s="158"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -6342,6 +6348,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -6350,12 +6362,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -6401,10 +6407,10 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="157" t="s">
+      <c r="G1" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="157"/>
+      <c r="H1" s="155"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -7155,10 +7161,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="154" t="s">
+      <c r="C8" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="155"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -7270,10 +7276,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="154" t="s">
+      <c r="C9" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="155"/>
+      <c r="D9" s="158"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -7385,10 +7391,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="155"/>
+      <c r="D10" s="158"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -7499,10 +7505,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="155"/>
+      <c r="D11" s="158"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -7614,10 +7620,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="155"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -7729,10 +7735,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="155"/>
+      <c r="D13" s="158"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -7847,10 +7853,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="155"/>
+      <c r="D14" s="158"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -7965,10 +7971,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="155"/>
+      <c r="D15" s="158"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -8083,10 +8089,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="155"/>
+      <c r="D16" s="158"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -8201,10 +8207,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="157" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="155"/>
+      <c r="D17" s="158"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -8319,10 +8325,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="154" t="s">
+      <c r="C18" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="155"/>
+      <c r="D18" s="158"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -8437,10 +8443,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="154" t="s">
+      <c r="C19" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="155"/>
+      <c r="D19" s="158"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -8935,10 +8941,10 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="157" t="s">
+      <c r="G1" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="157"/>
+      <c r="H1" s="155"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -9689,10 +9695,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="154" t="s">
+      <c r="C8" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="155"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -9804,10 +9810,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="154" t="s">
+      <c r="C9" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="155"/>
+      <c r="D9" s="158"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -9919,10 +9925,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="155"/>
+      <c r="D10" s="158"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -10033,10 +10039,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="155"/>
+      <c r="D11" s="158"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -10148,10 +10154,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="155"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -10263,10 +10269,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="155"/>
+      <c r="D13" s="158"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -10381,10 +10387,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="155"/>
+      <c r="D14" s="158"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -10499,10 +10505,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="155"/>
+      <c r="D15" s="158"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -10617,10 +10623,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="155"/>
+      <c r="D16" s="158"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -10735,10 +10741,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="157" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="155"/>
+      <c r="D17" s="158"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -10853,10 +10859,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="154" t="s">
+      <c r="C18" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="155"/>
+      <c r="D18" s="158"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -10971,10 +10977,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="154" t="s">
+      <c r="C19" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="155"/>
+      <c r="D19" s="158"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -11477,10 +11483,10 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="157" t="s">
+      <c r="G1" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="157"/>
+      <c r="H1" s="155"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -12231,10 +12237,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="154" t="s">
+      <c r="C8" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="155"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -12346,10 +12352,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="154" t="s">
+      <c r="C9" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="155"/>
+      <c r="D9" s="158"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -12461,10 +12467,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="155"/>
+      <c r="D10" s="158"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -12575,10 +12581,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="155"/>
+      <c r="D11" s="158"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -12690,10 +12696,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="155"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -12805,10 +12811,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="155"/>
+      <c r="D13" s="158"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -12923,10 +12929,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="155"/>
+      <c r="D14" s="158"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -13041,10 +13047,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="155"/>
+      <c r="D15" s="158"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -13159,10 +13165,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="155"/>
+      <c r="D16" s="158"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -13277,10 +13283,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="157" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="155"/>
+      <c r="D17" s="158"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -13395,10 +13401,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="154" t="s">
+      <c r="C18" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="155"/>
+      <c r="D18" s="158"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -13513,10 +13519,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="154" t="s">
+      <c r="C19" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="155"/>
+      <c r="D19" s="158"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -14401,10 +14407,10 @@
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="154" t="s">
+      <c r="C9" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="155"/>
+      <c r="D9" s="158"/>
       <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
@@ -14479,10 +14485,10 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="155"/>
+      <c r="D10" s="158"/>
       <c r="E10" s="121" t="s">
         <v>17</v>
       </c>
@@ -14557,10 +14563,10 @@
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="155"/>
+      <c r="D11" s="158"/>
       <c r="E11" s="118" t="s">
         <v>13</v>
       </c>
@@ -14634,10 +14640,10 @@
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="155"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="119" t="s">
         <v>107</v>
       </c>
@@ -14712,10 +14718,10 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="155"/>
+      <c r="D13" s="158"/>
       <c r="E13" s="120" t="s">
         <v>108</v>
       </c>
@@ -14790,10 +14796,10 @@
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="155"/>
+      <c r="D14" s="158"/>
       <c r="E14" s="118" t="s">
         <v>1</v>
       </c>
@@ -14871,10 +14877,10 @@
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="155"/>
+      <c r="D15" s="158"/>
       <c r="E15" s="121" t="s">
         <v>17</v>
       </c>
@@ -14952,10 +14958,10 @@
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="155"/>
+      <c r="D16" s="158"/>
       <c r="E16" s="54" t="s">
         <v>14</v>
       </c>
@@ -15033,10 +15039,10 @@
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="155"/>
+      <c r="D17" s="158"/>
       <c r="E17" s="53" t="s">
         <v>12</v>
       </c>
@@ -15114,10 +15120,10 @@
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="C18" s="154" t="s">
+      <c r="C18" s="157" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="155"/>
+      <c r="D18" s="158"/>
       <c r="E18" s="118" t="s">
         <v>13</v>
       </c>
@@ -15195,10 +15201,10 @@
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19" s="154" t="s">
+      <c r="C19" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="155"/>
+      <c r="D19" s="158"/>
       <c r="E19" s="119" t="s">
         <v>107</v>
       </c>
@@ -15276,10 +15282,10 @@
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20" s="154" t="s">
+      <c r="C20" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="155"/>
+      <c r="D20" s="158"/>
       <c r="E20" s="120" t="s">
         <v>108</v>
       </c>
@@ -15459,29 +15465,29 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="157" t="s">
+      <c r="G1" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="157"/>
+      <c r="H1" s="155"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="157" t="s">
+      <c r="N1" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
       <c r="AB1" s="9"/>
@@ -16211,10 +16217,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="154" t="s">
+      <c r="C8" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="155"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -16326,10 +16332,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="154" t="s">
+      <c r="C9" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="155"/>
+      <c r="D9" s="158"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -16441,10 +16447,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="155"/>
+      <c r="D10" s="158"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -16555,10 +16561,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="155"/>
+      <c r="D11" s="158"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -16670,10 +16676,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="155"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -16785,10 +16791,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="155"/>
+      <c r="D13" s="158"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -16903,10 +16909,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="155"/>
+      <c r="D14" s="158"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -17021,10 +17027,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="155"/>
+      <c r="D15" s="158"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -17139,10 +17145,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="155"/>
+      <c r="D16" s="158"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -17257,10 +17263,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="157" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="155"/>
+      <c r="D17" s="158"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -17375,10 +17381,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="154" t="s">
+      <c r="C18" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="155"/>
+      <c r="D18" s="158"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -17493,10 +17499,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="154" t="s">
+      <c r="C19" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="155"/>
+      <c r="D19" s="158"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -17962,15 +17968,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CE001F-6A65-4E9D-B5FC-C016A6BDF4C9}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>171</v>
       </c>
@@ -18004,8 +18010,23 @@
       <c r="K1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -18039,14 +18060,24 @@
       <c r="K2" s="20">
         <v>0.85789439663283595</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
+      <c r="L2" s="113">
+        <v>583.25117608093103</v>
+      </c>
+      <c r="M2" s="20">
+        <v>49.077626598619197</v>
+      </c>
+      <c r="N2" s="20">
+        <v>17.802459787858002</v>
+      </c>
+      <c r="O2" s="20">
+        <v>38.807503169526299</v>
+      </c>
+      <c r="P2" s="20">
+        <v>17.802459787858002</v>
+      </c>
       <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -18080,14 +18111,24 @@
       <c r="K3" s="20">
         <v>0.75053077669637902</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
+      <c r="L3" s="113">
+        <v>583.90546304153997</v>
+      </c>
+      <c r="M3" s="20">
+        <v>49.072034988593501</v>
+      </c>
+      <c r="N3" s="20">
+        <v>17.822430458786201</v>
+      </c>
+      <c r="O3" s="20">
+        <v>38.809697676326898</v>
+      </c>
+      <c r="P3" s="20">
+        <v>17.822430458786201</v>
+      </c>
       <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -18121,14 +18162,24 @@
       <c r="K4" s="20">
         <v>1.20721894259884</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
+      <c r="L4" s="113">
+        <v>581.47843538169298</v>
+      </c>
+      <c r="M4" s="20">
+        <v>49.080158223672697</v>
+      </c>
+      <c r="N4" s="20">
+        <v>17.7483507756404</v>
+      </c>
+      <c r="O4" s="20">
+        <v>38.805250139358598</v>
+      </c>
+      <c r="P4" s="20">
+        <v>17.7483507756404</v>
+      </c>
       <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -18162,14 +18213,24 @@
       <c r="K5" s="20">
         <v>0.91127614959771597</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
+      <c r="L5" s="113">
+        <v>582.92334650868509</v>
+      </c>
+      <c r="M5" s="20">
+        <v>49.077846409130998</v>
+      </c>
+      <c r="N5" s="20">
+        <v>17.792453510945901</v>
+      </c>
+      <c r="O5" s="20">
+        <v>38.806533526360703</v>
+      </c>
+      <c r="P5" s="20">
+        <v>17.792453510945901</v>
+      </c>
       <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -18203,14 +18264,24 @@
       <c r="K6" s="20">
         <v>0.89350611981561001</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
+      <c r="L6" s="113">
+        <v>583.05720104602904</v>
+      </c>
+      <c r="M6" s="20">
+        <v>49.077517781959301</v>
+      </c>
+      <c r="N6" s="20">
+        <v>17.7965391263998</v>
+      </c>
+      <c r="O6" s="20">
+        <v>38.806703964233499</v>
+      </c>
+      <c r="P6" s="20">
+        <v>17.7965391263998</v>
+      </c>
       <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -18244,14 +18315,24 @@
       <c r="K7" s="20">
         <v>0.93709557156889001</v>
       </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="L7" s="113">
+        <v>434.18860196160296</v>
+      </c>
+      <c r="M7" s="20">
+        <v>40.327354952471701</v>
+      </c>
+      <c r="N7" s="20">
+        <v>14.371765321907301</v>
+      </c>
+      <c r="O7" s="20">
+        <v>40.088742537269603</v>
+      </c>
+      <c r="P7" s="20">
+        <v>14.371765321907301</v>
+      </c>
       <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -18285,14 +18366,24 @@
       <c r="K8" s="20">
         <v>1.0857409785546599</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
+      <c r="L8" s="113">
+        <v>464.46556816045603</v>
+      </c>
+      <c r="M8" s="20">
+        <v>39.314943838380401</v>
+      </c>
+      <c r="N8" s="20">
+        <v>15.373941452057601</v>
+      </c>
+      <c r="O8" s="20">
+        <v>40.039904556380897</v>
+      </c>
+      <c r="P8" s="20">
+        <v>15.373941452057601</v>
+      </c>
       <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -18326,14 +18417,24 @@
       <c r="K9" s="20">
         <v>1.13819731728577</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
+      <c r="L9" s="113">
+        <v>439.78710439768997</v>
+      </c>
+      <c r="M9" s="20">
+        <v>39.063610593990703</v>
+      </c>
+      <c r="N9" s="20">
+        <v>14.5570773333283</v>
+      </c>
+      <c r="O9" s="20">
+        <v>39.868615935227801</v>
+      </c>
+      <c r="P9" s="20">
+        <v>14.5570773333283</v>
+      </c>
       <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -18367,14 +18468,24 @@
       <c r="K10" s="20">
         <v>2.1606008512993999</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
+      <c r="L10" s="113">
+        <v>405.11513024656102</v>
+      </c>
+      <c r="M10" s="20">
+        <v>37.756400946950897</v>
+      </c>
+      <c r="N10" s="20">
+        <v>13.409425198988499</v>
+      </c>
+      <c r="O10" s="20">
+        <v>40.257773827659697</v>
+      </c>
+      <c r="P10" s="20">
+        <v>13.409425198988499</v>
+      </c>
       <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -18408,14 +18519,24 @@
       <c r="K11" s="20">
         <v>2.0409118768470802</v>
       </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
+      <c r="L11" s="113">
+        <v>367.66567865744196</v>
+      </c>
+      <c r="M11" s="20">
+        <v>37.576210528916299</v>
+      </c>
+      <c r="N11" s="20">
+        <v>12.169837777205901</v>
+      </c>
+      <c r="O11" s="20">
+        <v>40.346658672579103</v>
+      </c>
+      <c r="P11" s="20">
+        <v>12.169837777205901</v>
+      </c>
       <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -18449,14 +18570,24 @@
       <c r="K12" s="20">
         <v>0</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
+      <c r="L12" s="113">
+        <v>707.40831690932998</v>
+      </c>
+      <c r="M12" s="20">
+        <v>51.1994141618245</v>
+      </c>
+      <c r="N12" s="20">
+        <v>17.0400952630565</v>
+      </c>
+      <c r="O12" s="20">
+        <v>41.349046513696599</v>
+      </c>
+      <c r="P12" s="20">
+        <v>17.0400952630565</v>
+      </c>
       <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -18490,14 +18621,24 @@
       <c r="K13" s="20">
         <v>0</v>
       </c>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
+      <c r="L13" s="113">
+        <v>707.50278417801496</v>
+      </c>
+      <c r="M13" s="20">
+        <v>51.1269021654971</v>
+      </c>
+      <c r="N13" s="20">
+        <v>17.0423707964637</v>
+      </c>
+      <c r="O13" s="20">
+        <v>41.336034464448801</v>
+      </c>
+      <c r="P13" s="20">
+        <v>17.0423707964637</v>
+      </c>
       <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -18531,14 +18672,24 @@
       <c r="K14" s="20">
         <v>0</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
+      <c r="L14" s="113">
+        <v>623.85289683243002</v>
+      </c>
+      <c r="M14" s="20">
+        <v>51.306545712939403</v>
+      </c>
+      <c r="N14" s="20">
+        <v>15.0274071396321</v>
+      </c>
+      <c r="O14" s="20">
+        <v>44.344606353706702</v>
+      </c>
+      <c r="P14" s="20">
+        <v>15.0274071396321</v>
+      </c>
       <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -18572,14 +18723,24 @@
       <c r="K15" s="20">
         <v>0</v>
       </c>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
+      <c r="L15" s="113">
+        <v>695.58925878680907</v>
+      </c>
+      <c r="M15" s="20">
+        <v>51.264913244043598</v>
+      </c>
+      <c r="N15" s="20">
+        <v>16.755397060457899</v>
+      </c>
+      <c r="O15" s="20">
+        <v>44.338051294812203</v>
+      </c>
+      <c r="P15" s="20">
+        <v>16.755397060457899</v>
+      </c>
       <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -18613,14 +18774,24 @@
       <c r="K16" s="20">
         <v>0</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
+      <c r="L16" s="113">
+        <v>658.81210042354394</v>
+      </c>
+      <c r="M16" s="20">
+        <v>51.157113734841197</v>
+      </c>
+      <c r="N16" s="20">
+        <v>15.869506596584801</v>
+      </c>
+      <c r="O16" s="20">
+        <v>41.332730849148398</v>
+      </c>
+      <c r="P16" s="20">
+        <v>15.869506596584801</v>
+      </c>
       <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -18654,14 +18825,24 @@
       <c r="K17" s="20">
         <v>0</v>
       </c>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
+      <c r="L17" s="113">
+        <v>710.6088713445771</v>
+      </c>
+      <c r="M17" s="20">
+        <v>51.180288678655998</v>
+      </c>
+      <c r="N17" s="20">
+        <v>17.117190416121002</v>
+      </c>
+      <c r="O17" s="20">
+        <v>41.3533426713281</v>
+      </c>
+      <c r="P17" s="20">
+        <v>17.117190416121002</v>
+      </c>
       <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -18695,12 +18876,22 @@
       <c r="K18" s="20">
         <v>0</v>
       </c>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
+      <c r="L18" s="113">
+        <v>711.67056375535299</v>
+      </c>
+      <c r="M18" s="20">
+        <v>51.167989935250503</v>
+      </c>
+      <c r="N18" s="20">
+        <v>17.142764528535601</v>
+      </c>
+      <c r="O18" s="20">
+        <v>41.359437729381</v>
+      </c>
+      <c r="P18" s="20">
+        <v>17.142764528535601</v>
+      </c>
       <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/Lolipop/Salts_Lollipop.xlsx
+++ b/Lolipop/Salts_Lollipop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Dataviz\Lolipop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F31592C-0ECB-4229-A28D-DD7DD238D537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B058C7-78FF-48FF-9BB4-B4E5ED0CBD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4755" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="2" r:id="rId1"/>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="220">
   <si>
     <t>PTC</t>
   </si>
@@ -1051,16 +1051,128 @@
   </si>
   <si>
     <t>ef_total</t>
+  </si>
+  <si>
+    <t>LCOE_bc</t>
+  </si>
+  <si>
+    <t>SM_o1</t>
+  </si>
+  <si>
+    <t>SM_o3</t>
+  </si>
+  <si>
+    <t>SM_o2</t>
+  </si>
+  <si>
+    <t>CF_bc</t>
+  </si>
+  <si>
+    <t>CF_o1</t>
+  </si>
+  <si>
+    <t>CF_o2</t>
+  </si>
+  <si>
+    <t>CF_o3</t>
+  </si>
+  <si>
+    <t>eta_n</t>
+  </si>
+  <si>
+    <t>eta_n1</t>
+  </si>
+  <si>
+    <t>eta_n2</t>
+  </si>
+  <si>
+    <t>eta_n3</t>
+  </si>
+  <si>
+    <t>TES_o1</t>
+  </si>
+  <si>
+    <t>TES_o2</t>
+  </si>
+  <si>
+    <t>TES_o3</t>
+  </si>
+  <si>
+    <t>P_b_n1</t>
+  </si>
+  <si>
+    <t>P_b_n2</t>
+  </si>
+  <si>
+    <t>P_b_n3</t>
+  </si>
+  <si>
+    <t>T_f_n1</t>
+  </si>
+  <si>
+    <t>T_f_n3</t>
+  </si>
+  <si>
+    <t>T_f_n2</t>
+  </si>
+  <si>
+    <t>CF_1</t>
+  </si>
+  <si>
+    <t>CF_2</t>
+  </si>
+  <si>
+    <t>CF_3</t>
+  </si>
+  <si>
+    <t>Par_1</t>
+  </si>
+  <si>
+    <t>Par_2</t>
+  </si>
+  <si>
+    <t>Par_3</t>
+  </si>
+  <si>
+    <t>ef_total_1</t>
+  </si>
+  <si>
+    <t>ef_total_2</t>
+  </si>
+  <si>
+    <t>ef_total_3</t>
+  </si>
+  <si>
+    <t>Par_bc</t>
+  </si>
+  <si>
+    <t>Par_o1</t>
+  </si>
+  <si>
+    <t>Par_o2</t>
+  </si>
+  <si>
+    <t>Par_o3</t>
+  </si>
+  <si>
+    <t>LCOE_o1</t>
+  </si>
+  <si>
+    <t>LCOE_o2</t>
+  </si>
+  <si>
+    <t>LCOE_o3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1580,7 +1692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1850,6 +1962,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2338,10 +2451,10 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="153" t="s">
+      <c r="A19" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="153"/>
+      <c r="B19" s="154"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2420,31 +2533,31 @@
   <sheetData>
     <row r="1" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="155" t="s">
+      <c r="G1" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="157"/>
       <c r="R1" s="103" t="s">
         <v>133</v>
       </c>
       <c r="S1" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="T1" s="154" t="s">
+      <c r="T1" s="155" t="s">
         <v>140</v>
       </c>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="157"/>
     </row>
     <row r="2" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
@@ -2865,10 +2978,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="158"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -2935,10 +3048,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="158"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -3005,10 +3118,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="158"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -3074,10 +3187,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="157" t="s">
+      <c r="C11" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="158"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -3144,10 +3257,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="158"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -3214,10 +3327,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="158"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -3284,10 +3397,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="157" t="s">
+      <c r="C14" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="158"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -3354,10 +3467,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="158"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -3421,10 +3534,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="158"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -3488,10 +3601,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="157" t="s">
+      <c r="C17" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="158"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -3557,10 +3670,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="157" t="s">
+      <c r="C18" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="158"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -3627,10 +3740,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="C19" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="158"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -3785,10 +3898,10 @@
   <dimension ref="A1:AS57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y2" sqref="Y2:AB19"/>
+      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,29 +3932,29 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="155" t="s">
+      <c r="G1" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="155"/>
+      <c r="H1" s="156"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="155" t="s">
+      <c r="N1" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
       <c r="AB1" s="9"/>
@@ -4571,10 +4684,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="158"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -4686,10 +4799,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="158"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -4801,10 +4914,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="158"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -4915,10 +5028,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="157" t="s">
+      <c r="C11" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="158"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -5030,10 +5143,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="158"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -5145,10 +5258,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="158"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -5263,10 +5376,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="157" t="s">
+      <c r="C14" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="158"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -5381,10 +5494,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="158"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -5499,10 +5612,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="158"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -5617,10 +5730,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="157" t="s">
+      <c r="C17" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="158"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -5735,10 +5848,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="157" t="s">
+      <c r="C18" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="158"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -5853,10 +5966,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="C19" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="158"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -6374,10 +6487,10 @@
   <dimension ref="A1:AN57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="S3:S19"/>
+      <selection pane="bottomRight" activeCell="AB3" sqref="AB3:AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6407,28 +6520,28 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="155" t="s">
+      <c r="G1" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="155"/>
+      <c r="H1" s="156"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="72"/>
-      <c r="O1" s="159" t="s">
+      <c r="O1" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="161"/>
+      <c r="S1" s="161"/>
+      <c r="T1" s="161"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="161"/>
+      <c r="X1" s="161"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
@@ -7161,10 +7274,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="158"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -7276,10 +7389,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="158"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -7391,10 +7504,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="158"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -7505,10 +7618,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="157" t="s">
+      <c r="C11" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="158"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -7620,10 +7733,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="158"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -7735,10 +7848,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="158"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -7853,10 +7966,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="157" t="s">
+      <c r="C14" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="158"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -7971,10 +8084,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="158"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -8089,10 +8202,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="158"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -8207,10 +8320,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="157" t="s">
+      <c r="C17" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="158"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -8325,10 +8438,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="157" t="s">
+      <c r="C18" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="158"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -8443,10 +8556,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="C19" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="158"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -8915,10 +9028,10 @@
   <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="S3:S19"/>
+      <selection pane="bottomRight" activeCell="AB3" sqref="AB3:AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8941,28 +9054,28 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="155" t="s">
+      <c r="G1" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="155"/>
+      <c r="H1" s="156"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="72"/>
-      <c r="O1" s="159" t="s">
+      <c r="O1" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="161"/>
+      <c r="S1" s="161"/>
+      <c r="T1" s="161"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="161"/>
+      <c r="X1" s="161"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
@@ -9695,10 +9808,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="158"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -9810,10 +9923,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="158"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -9925,10 +10038,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="158"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -10039,10 +10152,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="157" t="s">
+      <c r="C11" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="158"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -10154,10 +10267,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="158"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -10269,10 +10382,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="158"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -10387,10 +10500,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="157" t="s">
+      <c r="C14" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="158"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -10505,10 +10618,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="158"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -10623,10 +10736,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="158"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -10741,10 +10854,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="157" t="s">
+      <c r="C17" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="158"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -10859,10 +10972,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="157" t="s">
+      <c r="C18" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="158"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -10977,10 +11090,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="C19" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="158"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -11456,10 +11569,10 @@
   <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="S3:S19"/>
+      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11483,28 +11596,28 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="155" t="s">
+      <c r="G1" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="155"/>
+      <c r="H1" s="156"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="72"/>
-      <c r="O1" s="159" t="s">
+      <c r="O1" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="161"/>
+      <c r="S1" s="161"/>
+      <c r="T1" s="161"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="161"/>
+      <c r="X1" s="161"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
@@ -12237,10 +12350,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="158"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -12352,10 +12465,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="158"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -12467,10 +12580,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="158"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -12581,10 +12694,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="157" t="s">
+      <c r="C11" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="158"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -12696,10 +12809,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="158"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -12811,10 +12924,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="158"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -12929,10 +13042,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="157" t="s">
+      <c r="C14" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="158"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -13047,10 +13160,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="158"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -13165,10 +13278,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="158"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -13283,10 +13396,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="157" t="s">
+      <c r="C17" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="158"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -13401,10 +13514,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="157" t="s">
+      <c r="C18" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="158"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -13519,10 +13632,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="C19" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="158"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -14407,10 +14520,10 @@
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="158"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
@@ -14485,10 +14598,10 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="158"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="121" t="s">
         <v>17</v>
       </c>
@@ -14563,10 +14676,10 @@
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="157" t="s">
+      <c r="C11" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="158"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="118" t="s">
         <v>13</v>
       </c>
@@ -14640,10 +14753,10 @@
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="158"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="119" t="s">
         <v>107</v>
       </c>
@@ -14718,10 +14831,10 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="158"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="120" t="s">
         <v>108</v>
       </c>
@@ -14796,10 +14909,10 @@
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14" s="157" t="s">
+      <c r="C14" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="158"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="118" t="s">
         <v>1</v>
       </c>
@@ -14877,10 +14990,10 @@
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="158"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="121" t="s">
         <v>17</v>
       </c>
@@ -14958,10 +15071,10 @@
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="158"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="54" t="s">
         <v>14</v>
       </c>
@@ -15039,10 +15152,10 @@
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17" s="157" t="s">
+      <c r="C17" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="158"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="53" t="s">
         <v>12</v>
       </c>
@@ -15120,10 +15233,10 @@
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="C18" s="157" t="s">
+      <c r="C18" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="158"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="118" t="s">
         <v>13</v>
       </c>
@@ -15201,10 +15314,10 @@
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="C19" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="158"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="119" t="s">
         <v>107</v>
       </c>
@@ -15282,10 +15395,10 @@
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20" s="157" t="s">
+      <c r="C20" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="158"/>
+      <c r="D20" s="159"/>
       <c r="E20" s="120" t="s">
         <v>108</v>
       </c>
@@ -15465,29 +15578,29 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="155" t="s">
+      <c r="G1" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="155"/>
+      <c r="H1" s="156"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="155" t="s">
+      <c r="N1" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
       <c r="AB1" s="9"/>
@@ -16217,10 +16330,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="158"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -16332,10 +16445,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="158"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -16447,10 +16560,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="158"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -16561,10 +16674,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="157" t="s">
+      <c r="C11" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="158"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -16676,10 +16789,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="158"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -16791,10 +16904,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="157" t="s">
+      <c r="C13" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="158"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -16909,10 +17022,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="157" t="s">
+      <c r="C14" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="158"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -17027,10 +17140,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="158"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -17145,10 +17258,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="158"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -17263,10 +17376,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="157" t="s">
+      <c r="C17" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="158"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -17381,10 +17494,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="157" t="s">
+      <c r="C18" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="158"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -17499,10 +17612,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="C19" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="158"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -17968,15 +18081,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CE001F-6A65-4E9D-B5FC-C016A6BDF4C9}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:BA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AY14" sqref="AY14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>171</v>
       </c>
@@ -18002,31 +18115,142 @@
         <v>174</v>
       </c>
       <c r="I1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" t="s">
         <v>175</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P1" t="s">
         <v>179</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>180</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>181</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>210</v>
+      </c>
+      <c r="X1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -18051,33 +18275,123 @@
       <c r="H2" s="113">
         <v>44.387456322749699</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="113">
+        <v>70.538086856233306</v>
+      </c>
+      <c r="J2" s="113">
+        <v>75.596662856914307</v>
+      </c>
+      <c r="K2" s="113">
+        <v>75.596662856914307</v>
+      </c>
+      <c r="L2" s="20">
         <v>49.487662252244398</v>
       </c>
-      <c r="J2" s="20">
-        <v>0</v>
-      </c>
-      <c r="K2" s="20">
+      <c r="M2" s="20">
+        <v>75.796604940424189</v>
+      </c>
+      <c r="N2" s="20">
+        <v>71.873000731712111</v>
+      </c>
+      <c r="O2" s="20">
+        <v>71.873000731712111</v>
+      </c>
+      <c r="P2" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="20">
         <v>0.85789439663283595</v>
       </c>
-      <c r="L2" s="113">
+      <c r="R2" s="113">
         <v>583.25117608093103</v>
       </c>
-      <c r="M2" s="20">
+      <c r="S2" s="20">
         <v>49.077626598619197</v>
       </c>
-      <c r="N2" s="20">
+      <c r="T2" s="20">
         <v>17.802459787858002</v>
       </c>
-      <c r="O2" s="20">
+      <c r="U2" s="20">
         <v>38.807503169526299</v>
       </c>
-      <c r="P2" s="20">
+      <c r="V2" s="20">
         <v>17.802459787858002</v>
       </c>
-      <c r="R2" s="20"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W2" s="20">
+        <v>16.242181422650699</v>
+      </c>
+      <c r="X2" s="20">
+        <v>16.295088493623101</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>16.295088493623101</v>
+      </c>
+      <c r="Z2" s="153">
+        <f>D2/$D$2</f>
+        <v>1</v>
+      </c>
+      <c r="AA2" s="153">
+        <f>E2/$D$2</f>
+        <v>0.83393586336421277</v>
+      </c>
+      <c r="AB2" s="153">
+        <f>F2/$D$2</f>
+        <v>0.78351180131058029</v>
+      </c>
+      <c r="AC2" s="153">
+        <f>G2/$D$2</f>
+        <v>0.78351180131058029</v>
+      </c>
+      <c r="AD2" s="113">
+        <f>H2/$H$2</f>
+        <v>1</v>
+      </c>
+      <c r="AE2" s="113">
+        <f>I2/$H$2</f>
+        <v>1.58914460750662</v>
+      </c>
+      <c r="AF2" s="113">
+        <f t="shared" ref="AF2:AG17" si="0">J2/$H$2</f>
+        <v>1.7031086960071893</v>
+      </c>
+      <c r="AG2" s="113">
+        <f t="shared" si="0"/>
+        <v>1.7031086960071893</v>
+      </c>
+      <c r="AH2" s="113">
+        <f>L2/$L$2</f>
+        <v>1</v>
+      </c>
+      <c r="AI2" s="113">
+        <f t="shared" ref="AI2:AK17" si="1">M2/$L$2</f>
+        <v>1.5316262981686231</v>
+      </c>
+      <c r="AJ2" s="113">
+        <f t="shared" si="1"/>
+        <v>1.4523418052234318</v>
+      </c>
+      <c r="AK2" s="113">
+        <f t="shared" si="1"/>
+        <v>1.4523418052234318</v>
+      </c>
+      <c r="AL2" s="113">
+        <f>V2/$V$2</f>
+        <v>1</v>
+      </c>
+      <c r="AM2" s="113">
+        <f t="shared" ref="AM2:AO17" si="2">W2/$V$2</f>
+        <v>0.91235602361694557</v>
+      </c>
+      <c r="AN2" s="113">
+        <f t="shared" si="2"/>
+        <v>0.91532792028756671</v>
+      </c>
+      <c r="AO2" s="113">
+        <f t="shared" si="2"/>
+        <v>0.91532792028756671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -18102,33 +18416,123 @@
       <c r="H3" s="113">
         <v>44.437249850954402</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="113">
+        <v>70.355788250342599</v>
+      </c>
+      <c r="J3" s="113">
+        <v>75.664447895580295</v>
+      </c>
+      <c r="K3" s="113">
+        <v>75.664447895580295</v>
+      </c>
+      <c r="L3" s="20">
         <v>49.285455591214898</v>
       </c>
-      <c r="J3" s="20">
-        <v>0</v>
-      </c>
-      <c r="K3" s="20">
+      <c r="M3" s="20">
+        <v>75.142924699858497</v>
+      </c>
+      <c r="N3" s="20">
+        <v>71.462030801398697</v>
+      </c>
+      <c r="O3" s="20">
+        <v>71.462030801398697</v>
+      </c>
+      <c r="P3" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="20">
         <v>0.75053077669637902</v>
       </c>
-      <c r="L3" s="113">
+      <c r="R3" s="113">
         <v>583.90546304153997</v>
       </c>
-      <c r="M3" s="20">
+      <c r="S3" s="20">
         <v>49.072034988593501</v>
       </c>
-      <c r="N3" s="20">
+      <c r="T3" s="20">
         <v>17.822430458786201</v>
       </c>
-      <c r="O3" s="20">
+      <c r="U3" s="20">
         <v>38.809697676326898</v>
       </c>
-      <c r="P3" s="20">
+      <c r="V3" s="20">
         <v>17.822430458786201</v>
       </c>
-      <c r="R3" s="20"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W3" s="20">
+        <v>16.354100366704099</v>
+      </c>
+      <c r="X3" s="20">
+        <v>16.202624392916999</v>
+      </c>
+      <c r="Y3" s="20">
+        <v>16.202624392916999</v>
+      </c>
+      <c r="Z3" s="153">
+        <f t="shared" ref="Z3:Z18" si="3">D3/$D$2</f>
+        <v>1.0033319406822756</v>
+      </c>
+      <c r="AA3" s="153">
+        <f t="shared" ref="AA3:AA18" si="4">E3/$D$2</f>
+        <v>0.83809121987148238</v>
+      </c>
+      <c r="AB3" s="153">
+        <f t="shared" ref="AB3:AB18" si="5">F3/$D$2</f>
+        <v>0.78569079024979305</v>
+      </c>
+      <c r="AC3" s="153">
+        <f t="shared" ref="AC3:AC18" si="6">G3/$D$2</f>
+        <v>0.78569079024979305</v>
+      </c>
+      <c r="AD3" s="113">
+        <f t="shared" ref="AD3:AD18" si="7">H3/$H$2</f>
+        <v>1.0011217927840388</v>
+      </c>
+      <c r="AE3" s="113">
+        <f t="shared" ref="AE3:AG18" si="8">I3/$H$2</f>
+        <v>1.5850376227637868</v>
+      </c>
+      <c r="AF3" s="113">
+        <f t="shared" si="0"/>
+        <v>1.7046358175023502</v>
+      </c>
+      <c r="AG3" s="113">
+        <f t="shared" si="0"/>
+        <v>1.7046358175023502</v>
+      </c>
+      <c r="AH3" s="113">
+        <f t="shared" ref="AH3:AK18" si="9">L3/$L$2</f>
+        <v>0.99591399852353446</v>
+      </c>
+      <c r="AI3" s="113">
+        <f t="shared" si="1"/>
+        <v>1.5184173444452929</v>
+      </c>
+      <c r="AJ3" s="113">
+        <f t="shared" si="1"/>
+        <v>1.4440373125153574</v>
+      </c>
+      <c r="AK3" s="113">
+        <f t="shared" si="1"/>
+        <v>1.4440373125153574</v>
+      </c>
+      <c r="AL3" s="113">
+        <f t="shared" ref="AL3:AO18" si="10">V3/$V$2</f>
+        <v>1.001121792784041</v>
+      </c>
+      <c r="AM3" s="113">
+        <f t="shared" si="2"/>
+        <v>0.91864273598069057</v>
+      </c>
+      <c r="AN3" s="113">
+        <f t="shared" si="2"/>
+        <v>0.91013402563435897</v>
+      </c>
+      <c r="AO3" s="113">
+        <f t="shared" si="2"/>
+        <v>0.91013402563435897</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -18153,33 +18557,123 @@
       <c r="H4" s="113">
         <v>44.252544549596102</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="113">
+        <v>70.841862826093902</v>
+      </c>
+      <c r="J4" s="113">
+        <v>75.118901519553205</v>
+      </c>
+      <c r="K4" s="113">
+        <v>75.118901519553205</v>
+      </c>
+      <c r="L4" s="20">
         <v>50.370444401699004</v>
       </c>
-      <c r="J4" s="20">
-        <v>0</v>
-      </c>
-      <c r="K4" s="20">
+      <c r="M4" s="20">
+        <v>78.811358142058694</v>
+      </c>
+      <c r="N4" s="20">
+        <v>73.969592060570704</v>
+      </c>
+      <c r="O4" s="20">
+        <v>73.969592060570704</v>
+      </c>
+      <c r="P4" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="20">
         <v>1.20721894259884</v>
       </c>
-      <c r="L4" s="113">
+      <c r="R4" s="113">
         <v>581.47843538169298</v>
       </c>
-      <c r="M4" s="20">
+      <c r="S4" s="20">
         <v>49.080158223672697</v>
       </c>
-      <c r="N4" s="20">
+      <c r="T4" s="20">
         <v>17.7483507756404</v>
       </c>
-      <c r="O4" s="20">
+      <c r="U4" s="20">
         <v>38.805250139358598</v>
       </c>
-      <c r="P4" s="20">
+      <c r="V4" s="20">
         <v>17.7483507756404</v>
       </c>
-      <c r="R4" s="20"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W4" s="20">
+        <v>16.010937630747701</v>
+      </c>
+      <c r="X4" s="20">
+        <v>16.085791168138599</v>
+      </c>
+      <c r="Y4" s="20">
+        <v>16.085791168138599</v>
+      </c>
+      <c r="Z4" s="153">
+        <f t="shared" si="3"/>
+        <v>1.0781971493423297</v>
+      </c>
+      <c r="AA4" s="153">
+        <f t="shared" si="4"/>
+        <v>0.90186789050962901</v>
+      </c>
+      <c r="AB4" s="153">
+        <f t="shared" si="5"/>
+        <v>0.83566809488661786</v>
+      </c>
+      <c r="AC4" s="153">
+        <f t="shared" si="6"/>
+        <v>0.83566809488661786</v>
+      </c>
+      <c r="AD4" s="113">
+        <f t="shared" si="7"/>
+        <v>0.99696058787030672</v>
+      </c>
+      <c r="AE4" s="113">
+        <f t="shared" si="8"/>
+        <v>1.595988342089016</v>
+      </c>
+      <c r="AF4" s="113">
+        <f t="shared" si="0"/>
+        <v>1.6923452646925581</v>
+      </c>
+      <c r="AG4" s="113">
+        <f t="shared" si="0"/>
+        <v>1.6923452646925581</v>
+      </c>
+      <c r="AH4" s="113">
+        <f t="shared" si="9"/>
+        <v>1.0178384289998377</v>
+      </c>
+      <c r="AI4" s="113">
+        <f t="shared" si="1"/>
+        <v>1.5925455872283478</v>
+      </c>
+      <c r="AJ4" s="113">
+        <f t="shared" si="1"/>
+        <v>1.4947077452060484</v>
+      </c>
+      <c r="AK4" s="113">
+        <f t="shared" si="1"/>
+        <v>1.4947077452060484</v>
+      </c>
+      <c r="AL4" s="113">
+        <f t="shared" si="10"/>
+        <v>0.99696058787030617</v>
+      </c>
+      <c r="AM4" s="113">
+        <f t="shared" si="2"/>
+        <v>0.89936659436623523</v>
+      </c>
+      <c r="AN4" s="113">
+        <f t="shared" si="2"/>
+        <v>0.9035712682305711</v>
+      </c>
+      <c r="AO4" s="113">
+        <f t="shared" si="2"/>
+        <v>0.9035712682305711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -18204,33 +18698,123 @@
       <c r="H5" s="113">
         <v>44.362507344648797</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="113">
+        <v>70.982186306558802</v>
+      </c>
+      <c r="J5" s="113">
+        <v>75.415953887485401</v>
+      </c>
+      <c r="K5" s="113">
+        <v>75.416582681628199</v>
+      </c>
+      <c r="L5" s="20">
         <v>49.562845933160403</v>
       </c>
-      <c r="J5" s="20">
-        <v>0</v>
-      </c>
-      <c r="K5" s="20">
+      <c r="M5" s="20">
+        <v>75.140433337030004</v>
+      </c>
+      <c r="N5" s="20">
+        <v>71.180630195656803</v>
+      </c>
+      <c r="O5" s="20">
+        <v>71.1802973281997</v>
+      </c>
+      <c r="P5" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="20">
         <v>0.91127614959771597</v>
       </c>
-      <c r="L5" s="113">
+      <c r="R5" s="113">
         <v>582.92334650868509</v>
       </c>
-      <c r="M5" s="20">
+      <c r="S5" s="20">
         <v>49.077846409130998</v>
       </c>
-      <c r="N5" s="20">
+      <c r="T5" s="20">
         <v>17.792453510945901</v>
       </c>
-      <c r="O5" s="20">
+      <c r="U5" s="20">
         <v>38.806533526360703</v>
       </c>
-      <c r="P5" s="20">
+      <c r="V5" s="20">
         <v>17.792453510945901</v>
       </c>
-      <c r="R5" s="20"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W5" s="20">
+        <v>16.0796448162512</v>
+      </c>
+      <c r="X5" s="20">
+        <v>16.149551324662301</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>16.1495569851825</v>
+      </c>
+      <c r="Z5" s="153">
+        <f t="shared" si="3"/>
+        <v>1.0675696087818762</v>
+      </c>
+      <c r="AA5" s="153">
+        <f t="shared" si="4"/>
+        <v>0.87812656111338938</v>
+      </c>
+      <c r="AB5" s="153">
+        <f t="shared" si="5"/>
+        <v>0.81382844618143002</v>
+      </c>
+      <c r="AC5" s="153">
+        <f t="shared" si="6"/>
+        <v>0.81382866325888092</v>
+      </c>
+      <c r="AD5" s="113">
+        <f t="shared" si="7"/>
+        <v>0.99943792728469294</v>
+      </c>
+      <c r="AE5" s="113">
+        <f t="shared" si="8"/>
+        <v>1.5991496739627007</v>
+      </c>
+      <c r="AF5" s="113">
+        <f t="shared" si="0"/>
+        <v>1.6990375240050151</v>
+      </c>
+      <c r="AG5" s="113">
+        <f t="shared" si="0"/>
+        <v>1.6990516900373784</v>
+      </c>
+      <c r="AH5" s="113">
+        <f t="shared" si="9"/>
+        <v>1.0015192409076183</v>
+      </c>
+      <c r="AI5" s="113">
+        <f t="shared" si="1"/>
+        <v>1.5183670013352102</v>
+      </c>
+      <c r="AJ5" s="113">
+        <f t="shared" si="1"/>
+        <v>1.4383510345031214</v>
+      </c>
+      <c r="AK5" s="113">
+        <f t="shared" si="1"/>
+        <v>1.4383443082315226</v>
+      </c>
+      <c r="AL5" s="113">
+        <f t="shared" si="10"/>
+        <v>0.99943792728469327</v>
+      </c>
+      <c r="AM5" s="113">
+        <f t="shared" si="2"/>
+        <v>0.90322601527335955</v>
+      </c>
+      <c r="AN5" s="113">
+        <f t="shared" si="2"/>
+        <v>0.90715280456226333</v>
+      </c>
+      <c r="AO5" s="113">
+        <f t="shared" si="2"/>
+        <v>0.90715312252507663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -18255,33 +18839,123 @@
       <c r="H6" s="113">
         <v>44.372694143533401</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="113">
+        <v>70.700268044695207</v>
+      </c>
+      <c r="J6" s="113">
+        <v>75.712708273545999</v>
+      </c>
+      <c r="K6" s="113">
+        <v>75.712654334925404</v>
+      </c>
+      <c r="L6" s="20">
         <v>49.549460733022094</v>
       </c>
-      <c r="J6" s="20">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20">
+      <c r="M6" s="20">
+        <v>74.674166115299002</v>
+      </c>
+      <c r="N6" s="20">
+        <v>71.364653505626293</v>
+      </c>
+      <c r="O6" s="20">
+        <v>71.364418981438902</v>
+      </c>
+      <c r="P6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="20">
         <v>0.89350611981561001</v>
       </c>
-      <c r="L6" s="113">
+      <c r="R6" s="113">
         <v>583.05720104602904</v>
       </c>
-      <c r="M6" s="20">
+      <c r="S6" s="20">
         <v>49.077517781959301</v>
       </c>
-      <c r="N6" s="20">
+      <c r="T6" s="20">
         <v>17.7965391263998</v>
       </c>
-      <c r="O6" s="20">
+      <c r="U6" s="20">
         <v>38.806703964233499</v>
       </c>
-      <c r="P6" s="20">
+      <c r="V6" s="20">
         <v>17.7965391263998</v>
       </c>
-      <c r="R6" s="20"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W6" s="20">
+        <v>16.434007121274099</v>
+      </c>
+      <c r="X6" s="20">
+        <v>16.212926498284499</v>
+      </c>
+      <c r="Y6" s="20">
+        <v>16.212931034673002</v>
+      </c>
+      <c r="Z6" s="153">
+        <f t="shared" si="3"/>
+        <v>1.0749224069414487</v>
+      </c>
+      <c r="AA6" s="153">
+        <f t="shared" si="4"/>
+        <v>0.8910149727425215</v>
+      </c>
+      <c r="AB6" s="153">
+        <f t="shared" si="5"/>
+        <v>0.82870619404977008</v>
+      </c>
+      <c r="AC6" s="153">
+        <f t="shared" si="6"/>
+        <v>0.82870623176296554</v>
+      </c>
+      <c r="AD6" s="113">
+        <f t="shared" si="7"/>
+        <v>0.99966742452847579</v>
+      </c>
+      <c r="AE6" s="113">
+        <f t="shared" si="8"/>
+        <v>1.5927983692198988</v>
+      </c>
+      <c r="AF6" s="113">
+        <f t="shared" si="0"/>
+        <v>1.7057230701174761</v>
+      </c>
+      <c r="AG6" s="113">
+        <f t="shared" si="0"/>
+        <v>1.705721854940373</v>
+      </c>
+      <c r="AH6" s="113">
+        <f t="shared" si="9"/>
+        <v>1.0012487654086932</v>
+      </c>
+      <c r="AI6" s="113">
+        <f t="shared" si="1"/>
+        <v>1.5089451131208431</v>
+      </c>
+      <c r="AJ6" s="113">
+        <f t="shared" si="1"/>
+        <v>1.4420696039726491</v>
+      </c>
+      <c r="AK6" s="113">
+        <f t="shared" si="1"/>
+        <v>1.442064864929083</v>
+      </c>
+      <c r="AL6" s="113">
+        <f t="shared" si="10"/>
+        <v>0.99966742452847779</v>
+      </c>
+      <c r="AM6" s="113">
+        <f t="shared" si="2"/>
+        <v>0.92313125922535477</v>
+      </c>
+      <c r="AN6" s="113">
+        <f t="shared" si="2"/>
+        <v>0.91071271562946443</v>
+      </c>
+      <c r="AO6" s="113">
+        <f t="shared" si="2"/>
+        <v>0.91071297044753763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -18306,33 +18980,123 @@
       <c r="H7" s="113">
         <v>33.043206599817601</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="113">
+        <v>75.799892892278606</v>
+      </c>
+      <c r="J7" s="113">
+        <v>76.792728289599907</v>
+      </c>
+      <c r="K7" s="113">
+        <v>76.816130383416905</v>
+      </c>
+      <c r="L7" s="20">
         <v>73.176755057453505</v>
       </c>
-      <c r="J7" s="20">
+      <c r="M7" s="20">
+        <v>96.749121917359304</v>
+      </c>
+      <c r="N7" s="20">
+        <v>91.742559738618311</v>
+      </c>
+      <c r="O7" s="20">
+        <v>100.16824298352199</v>
+      </c>
+      <c r="P7" s="20">
         <v>41.989848012228201</v>
       </c>
-      <c r="K7" s="20">
+      <c r="Q7" s="20">
         <v>0.93709557156889001</v>
       </c>
-      <c r="L7" s="113">
+      <c r="R7" s="113">
         <v>434.18860196160296</v>
       </c>
-      <c r="M7" s="20">
+      <c r="S7" s="20">
         <v>40.327354952471701</v>
       </c>
-      <c r="N7" s="20">
+      <c r="T7" s="20">
         <v>14.371765321907301</v>
       </c>
-      <c r="O7" s="20">
+      <c r="U7" s="20">
         <v>40.088742537269603</v>
       </c>
-      <c r="P7" s="20">
+      <c r="V7" s="20">
         <v>14.371765321907301</v>
       </c>
-      <c r="R7" s="20"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W7" s="20">
+        <v>13.8135169916763</v>
+      </c>
+      <c r="X7" s="20">
+        <v>13.688558240892901</v>
+      </c>
+      <c r="Y7" s="20">
+        <v>15.279078081432299</v>
+      </c>
+      <c r="Z7" s="153">
+        <f t="shared" si="3"/>
+        <v>1.1848201265681406</v>
+      </c>
+      <c r="AA7" s="153">
+        <f t="shared" si="4"/>
+        <v>0.78962023452689878</v>
+      </c>
+      <c r="AB7" s="153">
+        <f t="shared" si="5"/>
+        <v>0.78867142479588692</v>
+      </c>
+      <c r="AC7" s="153">
+        <f t="shared" si="6"/>
+        <v>0.76616499435870067</v>
+      </c>
+      <c r="AD7" s="113">
+        <f t="shared" si="7"/>
+        <v>0.74442667675196605</v>
+      </c>
+      <c r="AE7" s="113">
+        <f t="shared" si="8"/>
+        <v>1.7076872425651757</v>
+      </c>
+      <c r="AF7" s="113">
+        <f t="shared" si="0"/>
+        <v>1.7300547193158642</v>
+      </c>
+      <c r="AG7" s="113">
+        <f t="shared" si="0"/>
+        <v>1.7305819424495088</v>
+      </c>
+      <c r="AH7" s="113">
+        <f t="shared" si="9"/>
+        <v>1.478686842883445</v>
+      </c>
+      <c r="AI7" s="113">
+        <f t="shared" si="1"/>
+        <v>1.9550149979649012</v>
+      </c>
+      <c r="AJ7" s="113">
+        <f t="shared" si="1"/>
+        <v>1.8538471118517532</v>
+      </c>
+      <c r="AK7" s="113">
+        <f t="shared" si="1"/>
+        <v>2.024105371414652</v>
+      </c>
+      <c r="AL7" s="113">
+        <f t="shared" si="10"/>
+        <v>0.80729098636748087</v>
+      </c>
+      <c r="AM7" s="113">
+        <f t="shared" si="2"/>
+        <v>0.77593305398716184</v>
+      </c>
+      <c r="AN7" s="113">
+        <f t="shared" si="2"/>
+        <v>0.76891386943219231</v>
+      </c>
+      <c r="AO7" s="113">
+        <f t="shared" si="2"/>
+        <v>0.85825657035626335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -18357,33 +19121,123 @@
       <c r="H8" s="113">
         <v>35.347389719973798</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="113">
+        <v>75.896961843701206</v>
+      </c>
+      <c r="J8" s="113">
+        <v>77.451482862631906</v>
+      </c>
+      <c r="K8" s="113">
+        <v>79.655868059278902</v>
+      </c>
+      <c r="L8" s="20">
         <v>30.5670025581733</v>
       </c>
-      <c r="J8" s="20">
+      <c r="M8" s="20">
+        <v>50.4134949940346</v>
+      </c>
+      <c r="N8" s="20">
+        <v>51.734193320577198</v>
+      </c>
+      <c r="O8" s="20">
+        <v>62.698336172119802</v>
+      </c>
+      <c r="P8" s="20">
         <v>8.1590132638309401E-2</v>
       </c>
-      <c r="K8" s="20">
+      <c r="Q8" s="20">
         <v>1.0857409785546599</v>
       </c>
-      <c r="L8" s="113">
+      <c r="R8" s="113">
         <v>464.46556816045603</v>
       </c>
-      <c r="M8" s="20">
+      <c r="S8" s="20">
         <v>39.314943838380401</v>
       </c>
-      <c r="N8" s="20">
+      <c r="T8" s="20">
         <v>15.373941452057601</v>
       </c>
-      <c r="O8" s="20">
+      <c r="U8" s="20">
         <v>40.039904556380897</v>
       </c>
-      <c r="P8" s="20">
+      <c r="V8" s="20">
         <v>15.373941452057601</v>
       </c>
-      <c r="R8" s="20"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W8" s="20">
+        <v>14.506554805322899</v>
+      </c>
+      <c r="X8" s="20">
+        <v>14.2739837994078</v>
+      </c>
+      <c r="Y8" s="20">
+        <v>15.497431578107699</v>
+      </c>
+      <c r="Z8" s="153">
+        <f t="shared" si="3"/>
+        <v>1.1125137660162432</v>
+      </c>
+      <c r="AA8" s="153">
+        <f t="shared" si="4"/>
+        <v>0.77316709575703835</v>
+      </c>
+      <c r="AB8" s="153">
+        <f t="shared" si="5"/>
+        <v>0.77196218363971503</v>
+      </c>
+      <c r="AC8" s="153">
+        <f t="shared" si="6"/>
+        <v>0.7467145971789293</v>
+      </c>
+      <c r="AD8" s="113">
+        <f t="shared" si="7"/>
+        <v>0.79633735853111642</v>
+      </c>
+      <c r="AE8" s="113">
+        <f t="shared" si="8"/>
+        <v>1.7098740980298546</v>
+      </c>
+      <c r="AF8" s="113">
+        <f t="shared" si="0"/>
+        <v>1.7448957268347918</v>
+      </c>
+      <c r="AG8" s="113">
+        <f t="shared" si="0"/>
+        <v>1.7945580724447425</v>
+      </c>
+      <c r="AH8" s="113">
+        <f t="shared" si="9"/>
+        <v>0.61766915564468805</v>
+      </c>
+      <c r="AI8" s="113">
+        <f t="shared" si="1"/>
+        <v>1.0187083547626705</v>
+      </c>
+      <c r="AJ8" s="113">
+        <f t="shared" si="1"/>
+        <v>1.0453957808085976</v>
+      </c>
+      <c r="AK8" s="113">
+        <f t="shared" si="1"/>
+        <v>1.2669488377232099</v>
+      </c>
+      <c r="AL8" s="113">
+        <f t="shared" si="10"/>
+        <v>0.8635852368302076</v>
+      </c>
+      <c r="AM8" s="113">
+        <f t="shared" si="2"/>
+        <v>0.81486238296221047</v>
+      </c>
+      <c r="AN8" s="113">
+        <f t="shared" si="2"/>
+        <v>0.80179840142895509</v>
+      </c>
+      <c r="AO8" s="113">
+        <f t="shared" si="2"/>
+        <v>0.87052192577778353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -18408,33 +19262,123 @@
       <c r="H9" s="113">
         <v>33.469272234222998</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="113">
+        <v>75.5337714936976</v>
+      </c>
+      <c r="J9" s="113">
+        <v>74.948696151271704</v>
+      </c>
+      <c r="K9" s="113">
+        <v>74.769487460120303</v>
+      </c>
+      <c r="L9" s="20">
         <v>36.050968156418001</v>
       </c>
-      <c r="J9" s="20">
+      <c r="M9" s="20">
+        <v>66.406067019706001</v>
+      </c>
+      <c r="N9" s="20">
+        <v>68.202362671779596</v>
+      </c>
+      <c r="O9" s="20">
+        <v>67.506628995377909</v>
+      </c>
+      <c r="P9" s="20">
         <v>3.3099227385757999</v>
       </c>
-      <c r="K9" s="20">
+      <c r="Q9" s="20">
         <v>1.13819731728577</v>
       </c>
-      <c r="L9" s="113">
+      <c r="R9" s="113">
         <v>439.78710439768997</v>
       </c>
-      <c r="M9" s="20">
+      <c r="S9" s="20">
         <v>39.063610593990703</v>
       </c>
-      <c r="N9" s="20">
+      <c r="T9" s="20">
         <v>14.5570773333283</v>
       </c>
-      <c r="O9" s="20">
+      <c r="U9" s="20">
         <v>39.868615935227801</v>
       </c>
-      <c r="P9" s="20">
+      <c r="V9" s="20">
         <v>14.5570773333283</v>
       </c>
-      <c r="R9" s="20"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W9" s="20">
+        <v>13.765020869175601</v>
+      </c>
+      <c r="X9" s="20">
+        <v>13.838858828582699</v>
+      </c>
+      <c r="Y9" s="20">
+        <v>13.831799882268999</v>
+      </c>
+      <c r="Z9" s="153">
+        <f t="shared" si="3"/>
+        <v>1.2117382533040157</v>
+      </c>
+      <c r="AA9" s="153">
+        <f t="shared" si="4"/>
+        <v>0.82727868038740193</v>
+      </c>
+      <c r="AB9" s="153">
+        <f t="shared" si="5"/>
+        <v>0.82635269557737356</v>
+      </c>
+      <c r="AC9" s="153">
+        <f t="shared" si="6"/>
+        <v>0.81516720250806318</v>
+      </c>
+      <c r="AD9" s="113">
+        <f t="shared" si="7"/>
+        <v>0.75402546140201199</v>
+      </c>
+      <c r="AE9" s="113">
+        <f t="shared" si="8"/>
+        <v>1.7016918235745946</v>
+      </c>
+      <c r="AF9" s="113">
+        <f t="shared" si="0"/>
+        <v>1.6885107271366346</v>
+      </c>
+      <c r="AG9" s="113">
+        <f t="shared" si="0"/>
+        <v>1.6844733547346582</v>
+      </c>
+      <c r="AH9" s="113">
+        <f t="shared" si="9"/>
+        <v>0.72848395975267544</v>
+      </c>
+      <c r="AI9" s="113">
+        <f t="shared" si="1"/>
+        <v>1.3418711654073801</v>
+      </c>
+      <c r="AJ9" s="113">
+        <f t="shared" si="1"/>
+        <v>1.378169013604728</v>
+      </c>
+      <c r="AK9" s="113">
+        <f t="shared" si="1"/>
+        <v>1.36411028371655</v>
+      </c>
+      <c r="AL9" s="113">
+        <f t="shared" si="10"/>
+        <v>0.81770033505464312</v>
+      </c>
+      <c r="AM9" s="113">
+        <f t="shared" si="2"/>
+        <v>0.77320892917078243</v>
+      </c>
+      <c r="AN9" s="113">
+        <f t="shared" si="2"/>
+        <v>0.7773565559755603</v>
+      </c>
+      <c r="AO9" s="113">
+        <f t="shared" si="2"/>
+        <v>0.7769600407525058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -18459,33 +19403,123 @@
       <c r="H10" s="113">
         <v>30.830613623025901</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="113">
+        <v>72.307637254457603</v>
+      </c>
+      <c r="J10" s="113">
+        <v>72.065062003829993</v>
+      </c>
+      <c r="K10" s="113">
+        <v>77.062941852879504</v>
+      </c>
+      <c r="L10" s="20">
         <v>69.762836958975399</v>
       </c>
-      <c r="J10" s="20">
+      <c r="M10" s="20">
+        <v>87.191143503809201</v>
+      </c>
+      <c r="N10" s="20">
+        <v>82.008533812018797</v>
+      </c>
+      <c r="O10" s="20">
+        <v>93.317269041065202</v>
+      </c>
+      <c r="P10" s="20">
         <v>39.234431454589505</v>
       </c>
-      <c r="K10" s="20">
+      <c r="Q10" s="20">
         <v>2.1606008512993999</v>
       </c>
-      <c r="L10" s="113">
+      <c r="R10" s="113">
         <v>405.11513024656102</v>
       </c>
-      <c r="M10" s="20">
+      <c r="S10" s="20">
         <v>37.756400946950897</v>
       </c>
-      <c r="N10" s="20">
+      <c r="T10" s="20">
         <v>13.409425198988499</v>
       </c>
-      <c r="O10" s="20">
+      <c r="U10" s="20">
         <v>40.257773827659697</v>
       </c>
-      <c r="P10" s="20">
+      <c r="V10" s="20">
         <v>13.409425198988499</v>
       </c>
-      <c r="R10" s="20"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W10" s="20">
+        <v>13.1772392435415</v>
+      </c>
+      <c r="X10" s="20">
+        <v>13.281269050637</v>
+      </c>
+      <c r="Y10" s="20">
+        <v>14.8160135718209</v>
+      </c>
+      <c r="Z10" s="153">
+        <f t="shared" si="3"/>
+        <v>1.3109508183988472</v>
+      </c>
+      <c r="AA10" s="153">
+        <f t="shared" si="4"/>
+        <v>0.85769013649009185</v>
+      </c>
+      <c r="AB10" s="153">
+        <f t="shared" si="5"/>
+        <v>0.85756002981165647</v>
+      </c>
+      <c r="AC10" s="153">
+        <f t="shared" si="6"/>
+        <v>0.78682521701957908</v>
+      </c>
+      <c r="AD10" s="113">
+        <f t="shared" si="7"/>
+        <v>0.69457941898834219</v>
+      </c>
+      <c r="AE10" s="113">
+        <f t="shared" si="8"/>
+        <v>1.6290106089588672</v>
+      </c>
+      <c r="AF10" s="113">
+        <f t="shared" si="0"/>
+        <v>1.6235456584813313</v>
+      </c>
+      <c r="AG10" s="113">
+        <f t="shared" si="0"/>
+        <v>1.736142330223658</v>
+      </c>
+      <c r="AH10" s="113">
+        <f t="shared" si="9"/>
+        <v>1.409701606097012</v>
+      </c>
+      <c r="AI10" s="113">
+        <f t="shared" si="1"/>
+        <v>1.7618763856612534</v>
+      </c>
+      <c r="AJ10" s="113">
+        <f t="shared" si="1"/>
+        <v>1.65715109745964</v>
+      </c>
+      <c r="AK10" s="113">
+        <f t="shared" si="1"/>
+        <v>1.8856673521051808</v>
+      </c>
+      <c r="AL10" s="113">
+        <f t="shared" si="10"/>
+        <v>0.75323440461493252</v>
+      </c>
+      <c r="AM10" s="113">
+        <f t="shared" si="2"/>
+        <v>0.74019205214151984</v>
+      </c>
+      <c r="AN10" s="113">
+        <f t="shared" si="2"/>
+        <v>0.74603561580267486</v>
+      </c>
+      <c r="AO10" s="113">
+        <f t="shared" si="2"/>
+        <v>0.83224530477108682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -18510,33 +19544,123 @@
       <c r="H11" s="113">
         <v>27.980579255513099</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="113">
+        <v>64.620524691960696</v>
+      </c>
+      <c r="J11" s="113">
+        <v>65.924325647331401</v>
+      </c>
+      <c r="K11" s="113">
+        <v>69.9853018921238</v>
+      </c>
+      <c r="L11" s="20">
         <v>106.82716367127699</v>
       </c>
-      <c r="J11" s="20">
+      <c r="M11" s="20">
+        <v>187.34994359707301</v>
+      </c>
+      <c r="N11" s="20">
+        <v>170.36471190669201</v>
+      </c>
+      <c r="O11" s="20">
+        <v>177.94541358970099</v>
+      </c>
+      <c r="P11" s="20">
         <v>76.5272637916636</v>
       </c>
-      <c r="K11" s="20">
+      <c r="Q11" s="20">
         <v>2.0409118768470802</v>
       </c>
-      <c r="L11" s="113">
+      <c r="R11" s="113">
         <v>367.66567865744196</v>
       </c>
-      <c r="M11" s="20">
+      <c r="S11" s="20">
         <v>37.576210528916299</v>
       </c>
-      <c r="N11" s="20">
+      <c r="T11" s="20">
         <v>12.169837777205901</v>
       </c>
-      <c r="O11" s="20">
+      <c r="U11" s="20">
         <v>40.346658672579103</v>
       </c>
-      <c r="P11" s="20">
+      <c r="V11" s="20">
         <v>12.169837777205901</v>
       </c>
-      <c r="R11" s="20"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W11" s="20">
+        <v>11.976920347030999</v>
+      </c>
+      <c r="X11" s="20">
+        <v>11.9737194020397</v>
+      </c>
+      <c r="Y11" s="20">
+        <v>13.6976581515469</v>
+      </c>
+      <c r="Z11" s="153">
+        <f t="shared" si="3"/>
+        <v>1.4276791269981648</v>
+      </c>
+      <c r="AA11" s="153">
+        <f t="shared" si="4"/>
+        <v>0.93629955121922392</v>
+      </c>
+      <c r="AB11" s="153">
+        <f t="shared" si="5"/>
+        <v>0.92869627663640764</v>
+      </c>
+      <c r="AC11" s="153">
+        <f t="shared" si="6"/>
+        <v>0.84412849233788922</v>
+      </c>
+      <c r="AD11" s="113">
+        <f t="shared" si="7"/>
+        <v>0.63037131598758323</v>
+      </c>
+      <c r="AE11" s="113">
+        <f t="shared" si="8"/>
+        <v>1.4558285165541471</v>
+      </c>
+      <c r="AF11" s="113">
+        <f t="shared" si="0"/>
+        <v>1.4852017013091041</v>
+      </c>
+      <c r="AG11" s="113">
+        <f t="shared" si="0"/>
+        <v>1.5766909773618758</v>
+      </c>
+      <c r="AH11" s="113">
+        <f t="shared" si="9"/>
+        <v>2.1586625597056184</v>
+      </c>
+      <c r="AI11" s="113">
+        <f t="shared" si="1"/>
+        <v>3.7857909440564894</v>
+      </c>
+      <c r="AJ11" s="113">
+        <f t="shared" si="1"/>
+        <v>3.4425694032246494</v>
+      </c>
+      <c r="AK11" s="113">
+        <f t="shared" si="1"/>
+        <v>3.595753072406056</v>
+      </c>
+      <c r="AL11" s="113">
+        <f t="shared" si="10"/>
+        <v>0.68360428402743667</v>
+      </c>
+      <c r="AM11" s="113">
+        <f t="shared" si="2"/>
+        <v>0.67276772366028559</v>
+      </c>
+      <c r="AN11" s="113">
+        <f t="shared" si="2"/>
+        <v>0.67258792013709601</v>
+      </c>
+      <c r="AO11" s="113">
+        <f t="shared" si="2"/>
+        <v>0.76942502973040039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -18561,33 +19685,123 @@
       <c r="H12" s="113">
         <v>53.836249384271703</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="113">
+        <v>86.344324645605695</v>
+      </c>
+      <c r="J12" s="113">
+        <v>86.174660469462694</v>
+      </c>
+      <c r="K12" s="113">
+        <v>86.887989895443596</v>
+      </c>
+      <c r="L12" s="20">
         <v>77.575959459497</v>
       </c>
-      <c r="J12" s="20">
-        <v>0</v>
-      </c>
-      <c r="K12" s="20">
-        <v>0</v>
-      </c>
-      <c r="L12" s="113">
+      <c r="M12" s="20">
+        <v>121.368193625933</v>
+      </c>
+      <c r="N12" s="20">
+        <v>119.348768697154</v>
+      </c>
+      <c r="O12" s="20">
+        <v>121.366137683953</v>
+      </c>
+      <c r="P12" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>0</v>
+      </c>
+      <c r="R12" s="113">
         <v>707.40831690932998</v>
       </c>
-      <c r="M12" s="20">
+      <c r="S12" s="20">
         <v>51.1994141618245</v>
       </c>
-      <c r="N12" s="20">
+      <c r="T12" s="20">
         <v>17.0400952630565</v>
       </c>
-      <c r="O12" s="20">
+      <c r="U12" s="20">
         <v>41.349046513696599</v>
       </c>
-      <c r="P12" s="20">
+      <c r="V12" s="20">
         <v>17.0400952630565</v>
       </c>
-      <c r="R12" s="20"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W12" s="20">
+        <v>15.552242691991101</v>
+      </c>
+      <c r="X12" s="20">
+        <v>15.5216704091309</v>
+      </c>
+      <c r="Y12" s="20">
+        <v>15.1807766195887</v>
+      </c>
+      <c r="Z12" s="153">
+        <f t="shared" si="3"/>
+        <v>0.82155398765850984</v>
+      </c>
+      <c r="AA12" s="153">
+        <f t="shared" si="4"/>
+        <v>0.67223397638476257</v>
+      </c>
+      <c r="AB12" s="153">
+        <f t="shared" si="5"/>
+        <v>0.67219940616637086</v>
+      </c>
+      <c r="AC12" s="153">
+        <f t="shared" si="6"/>
+        <v>0.67305549374769469</v>
+      </c>
+      <c r="AD12" s="113">
+        <f t="shared" si="7"/>
+        <v>1.2128707937850283</v>
+      </c>
+      <c r="AE12" s="113">
+        <f t="shared" si="8"/>
+        <v>1.9452415569340034</v>
+      </c>
+      <c r="AF12" s="113">
+        <f t="shared" si="0"/>
+        <v>1.9414192118347631</v>
+      </c>
+      <c r="AG12" s="113">
+        <f t="shared" si="0"/>
+        <v>1.9574897300639256</v>
+      </c>
+      <c r="AH12" s="113">
+        <f t="shared" si="9"/>
+        <v>1.5675818159298629</v>
+      </c>
+      <c r="AI12" s="113">
+        <f t="shared" si="1"/>
+        <v>2.4524939773332823</v>
+      </c>
+      <c r="AJ12" s="113">
+        <f t="shared" si="1"/>
+        <v>2.4116873431769594</v>
+      </c>
+      <c r="AK12" s="113">
+        <f t="shared" si="1"/>
+        <v>2.4524524327969992</v>
+      </c>
+      <c r="AL12" s="113">
+        <f t="shared" si="10"/>
+        <v>0.95717645011497432</v>
+      </c>
+      <c r="AM12" s="113">
+        <f t="shared" si="2"/>
+        <v>0.87360077637127198</v>
+      </c>
+      <c r="AN12" s="113">
+        <f t="shared" si="2"/>
+        <v>0.87188346970553521</v>
+      </c>
+      <c r="AO12" s="113">
+        <f t="shared" si="2"/>
+        <v>0.85273477937821851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -18612,33 +19826,123 @@
       <c r="H13" s="113">
         <v>53.843438674125998</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="113">
+        <v>87.451305422150796</v>
+      </c>
+      <c r="J13" s="113">
+        <v>87.315801877707699</v>
+      </c>
+      <c r="K13" s="113">
+        <v>87.330920106029396</v>
+      </c>
+      <c r="L13" s="20">
         <v>72.296176026160694</v>
       </c>
-      <c r="J13" s="20">
-        <v>0</v>
-      </c>
-      <c r="K13" s="20">
-        <v>0</v>
-      </c>
-      <c r="L13" s="113">
+      <c r="M13" s="20">
+        <v>114.036681167556</v>
+      </c>
+      <c r="N13" s="20">
+        <v>112.57976068134701</v>
+      </c>
+      <c r="O13" s="20">
+        <v>112.636361453437</v>
+      </c>
+      <c r="P13" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>0</v>
+      </c>
+      <c r="R13" s="113">
         <v>707.50278417801496</v>
       </c>
-      <c r="M13" s="20">
+      <c r="S13" s="20">
         <v>51.1269021654971</v>
       </c>
-      <c r="N13" s="20">
+      <c r="T13" s="20">
         <v>17.0423707964637</v>
       </c>
-      <c r="O13" s="20">
+      <c r="U13" s="20">
         <v>41.336034464448801</v>
       </c>
-      <c r="P13" s="20">
+      <c r="V13" s="20">
         <v>17.0423707964637</v>
       </c>
-      <c r="R13" s="20"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W13" s="20">
+        <v>15.2791939790988</v>
+      </c>
+      <c r="X13" s="20">
+        <v>15.2554648014309</v>
+      </c>
+      <c r="Y13" s="20">
+        <v>15.258192717678901</v>
+      </c>
+      <c r="Z13" s="153">
+        <f t="shared" si="3"/>
+        <v>0.82351549638766253</v>
+      </c>
+      <c r="AA13" s="153">
+        <f t="shared" si="4"/>
+        <v>0.67299681741644357</v>
+      </c>
+      <c r="AB13" s="153">
+        <f t="shared" si="5"/>
+        <v>0.67282270323017568</v>
+      </c>
+      <c r="AC13" s="153">
+        <f t="shared" si="6"/>
+        <v>0.6727690746985614</v>
+      </c>
+      <c r="AD13" s="113">
+        <f t="shared" si="7"/>
+        <v>1.2130327604857563</v>
+      </c>
+      <c r="AE13" s="113">
+        <f t="shared" si="8"/>
+        <v>1.9701806020663946</v>
+      </c>
+      <c r="AF13" s="113">
+        <f t="shared" si="0"/>
+        <v>1.9671278579880265</v>
+      </c>
+      <c r="AG13" s="113">
+        <f t="shared" si="0"/>
+        <v>1.9674684548497112</v>
+      </c>
+      <c r="AH13" s="113">
+        <f t="shared" si="9"/>
+        <v>1.4608929324173494</v>
+      </c>
+      <c r="AI13" s="113">
+        <f t="shared" si="1"/>
+        <v>2.3043456889577385</v>
+      </c>
+      <c r="AJ13" s="113">
+        <f t="shared" si="1"/>
+        <v>2.2749056139996027</v>
+      </c>
+      <c r="AK13" s="113">
+        <f t="shared" si="1"/>
+        <v>2.2760493490138272</v>
+      </c>
+      <c r="AL13" s="113">
+        <f t="shared" si="10"/>
+        <v>0.95730427140676855</v>
+      </c>
+      <c r="AM13" s="113">
+        <f t="shared" si="2"/>
+        <v>0.85826308056147549</v>
+      </c>
+      <c r="AN13" s="113">
+        <f t="shared" si="2"/>
+        <v>0.8569301648885479</v>
+      </c>
+      <c r="AO13" s="113">
+        <f t="shared" si="2"/>
+        <v>0.85708339743508954</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -18663,33 +19967,123 @@
       <c r="H14" s="113">
         <v>47.477389408860702</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="113">
+        <v>58.663056292999201</v>
+      </c>
+      <c r="J14" s="113">
+        <v>59.855699906102103</v>
+      </c>
+      <c r="K14" s="113">
+        <v>77.189564860150696</v>
+      </c>
+      <c r="L14" s="20">
         <v>173.74722170700198</v>
       </c>
-      <c r="J14" s="20">
-        <v>0</v>
-      </c>
-      <c r="K14" s="20">
-        <v>0</v>
-      </c>
-      <c r="L14" s="113">
+      <c r="M14" s="20">
+        <v>152.487105537996</v>
+      </c>
+      <c r="N14" s="20">
+        <v>127.359207588399</v>
+      </c>
+      <c r="O14" s="20">
+        <v>229.76931615155399</v>
+      </c>
+      <c r="P14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>0</v>
+      </c>
+      <c r="R14" s="113">
         <v>623.85289683243002</v>
       </c>
-      <c r="M14" s="20">
+      <c r="S14" s="20">
         <v>51.306545712939403</v>
       </c>
-      <c r="N14" s="20">
+      <c r="T14" s="20">
         <v>15.0274071396321</v>
       </c>
-      <c r="O14" s="20">
+      <c r="U14" s="20">
         <v>44.344606353706702</v>
       </c>
-      <c r="P14" s="20">
+      <c r="V14" s="20">
         <v>15.0274071396321</v>
       </c>
-      <c r="R14" s="20"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W14" s="20">
+        <v>15.4224444070424</v>
+      </c>
+      <c r="X14" s="20">
+        <v>15.737441788198</v>
+      </c>
+      <c r="Y14" s="20">
+        <v>13.9206933606657</v>
+      </c>
+      <c r="Z14" s="153">
+        <f t="shared" si="3"/>
+        <v>1.2407730921335098</v>
+      </c>
+      <c r="AA14" s="153">
+        <f t="shared" si="4"/>
+        <v>1.1320715474977474</v>
+      </c>
+      <c r="AB14" s="153">
+        <f t="shared" si="5"/>
+        <v>1.0815493216166758</v>
+      </c>
+      <c r="AC14" s="153">
+        <f t="shared" si="6"/>
+        <v>1.0406555963901154</v>
+      </c>
+      <c r="AD14" s="113">
+        <f t="shared" si="7"/>
+        <v>1.0696127541899114</v>
+      </c>
+      <c r="AE14" s="113">
+        <f t="shared" si="8"/>
+        <v>1.3216133825387262</v>
+      </c>
+      <c r="AF14" s="113">
+        <f t="shared" si="0"/>
+        <v>1.3484823160597408</v>
+      </c>
+      <c r="AG14" s="113">
+        <f t="shared" si="0"/>
+        <v>1.7389950056811228</v>
+      </c>
+      <c r="AH14" s="113">
+        <f t="shared" si="9"/>
+        <v>3.5109199707472962</v>
+      </c>
+      <c r="AI14" s="113">
+        <f t="shared" si="1"/>
+        <v>3.0813155966178276</v>
+      </c>
+      <c r="AJ14" s="113">
+        <f t="shared" si="1"/>
+        <v>2.573554736516634</v>
+      </c>
+      <c r="AK14" s="113">
+        <f t="shared" si="1"/>
+        <v>4.6429616129449185</v>
+      </c>
+      <c r="AL14" s="113">
+        <f t="shared" si="10"/>
+        <v>0.84411970697899852</v>
+      </c>
+      <c r="AM14" s="113">
+        <f t="shared" si="2"/>
+        <v>0.86630974544097172</v>
+      </c>
+      <c r="AN14" s="113">
+        <f t="shared" si="2"/>
+        <v>0.88400378238357669</v>
+      </c>
+      <c r="AO14" s="113">
+        <f t="shared" si="2"/>
+        <v>0.78195336636346047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -18714,33 +20108,123 @@
       <c r="H15" s="113">
         <v>52.936777685449698</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="113">
+        <v>83.262784434773096</v>
+      </c>
+      <c r="J15" s="113">
+        <v>84.480194199732395</v>
+      </c>
+      <c r="K15" s="113">
+        <v>84.470674887139893</v>
+      </c>
+      <c r="L15" s="20">
         <v>95.536495169463393</v>
       </c>
-      <c r="J15" s="20">
-        <v>0</v>
-      </c>
-      <c r="K15" s="20">
-        <v>0</v>
-      </c>
-      <c r="L15" s="113">
+      <c r="M15" s="20">
+        <v>152.732736033327</v>
+      </c>
+      <c r="N15" s="20">
+        <v>135.42334491223301</v>
+      </c>
+      <c r="O15" s="20">
+        <v>135.546869216316</v>
+      </c>
+      <c r="P15" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>0</v>
+      </c>
+      <c r="R15" s="113">
         <v>695.58925878680907</v>
       </c>
-      <c r="M15" s="20">
+      <c r="S15" s="20">
         <v>51.264913244043598</v>
       </c>
-      <c r="N15" s="20">
+      <c r="T15" s="20">
         <v>16.755397060457899</v>
       </c>
-      <c r="O15" s="20">
+      <c r="U15" s="20">
         <v>44.338051294812203</v>
       </c>
-      <c r="P15" s="20">
+      <c r="V15" s="20">
         <v>16.755397060457899</v>
       </c>
-      <c r="R15" s="20"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W15" s="20">
+        <v>15.0002555574205</v>
+      </c>
+      <c r="X15" s="20">
+        <v>14.8957314143791</v>
+      </c>
+      <c r="Y15" s="20">
+        <v>14.8939656797029</v>
+      </c>
+      <c r="Z15" s="153">
+        <f t="shared" si="3"/>
+        <v>1.1496574698060082</v>
+      </c>
+      <c r="AA15" s="153">
+        <f t="shared" si="4"/>
+        <v>1.0210820170788901</v>
+      </c>
+      <c r="AB15" s="153">
+        <f t="shared" si="5"/>
+        <v>0.97766462489926309</v>
+      </c>
+      <c r="AC15" s="153">
+        <f t="shared" si="6"/>
+        <v>0.97764688427571744</v>
+      </c>
+      <c r="AD15" s="113">
+        <f t="shared" si="7"/>
+        <v>1.1926066972735776</v>
+      </c>
+      <c r="AE15" s="113">
+        <f t="shared" si="8"/>
+        <v>1.8758178848851674</v>
+      </c>
+      <c r="AF15" s="113">
+        <f t="shared" si="0"/>
+        <v>1.9032447722496355</v>
+      </c>
+      <c r="AG15" s="113">
+        <f t="shared" si="0"/>
+        <v>1.9030303127292862</v>
+      </c>
+      <c r="AH15" s="113">
+        <f t="shared" si="9"/>
+        <v>1.9305113804427194</v>
+      </c>
+      <c r="AI15" s="113">
+        <f t="shared" si="1"/>
+        <v>3.086279065978716</v>
+      </c>
+      <c r="AJ15" s="113">
+        <f t="shared" si="1"/>
+        <v>2.7365072171315021</v>
+      </c>
+      <c r="AK15" s="113">
+        <f t="shared" si="1"/>
+        <v>2.7390032797552197</v>
+      </c>
+      <c r="AL15" s="113">
+        <f t="shared" si="10"/>
+        <v>0.94118437901967666</v>
+      </c>
+      <c r="AM15" s="113">
+        <f t="shared" si="2"/>
+        <v>0.84259454795405753</v>
+      </c>
+      <c r="AN15" s="113">
+        <f t="shared" si="2"/>
+        <v>0.83672321644779624</v>
+      </c>
+      <c r="AO15" s="113">
+        <f t="shared" si="2"/>
+        <v>0.8366240315768716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -18765,33 +20249,123 @@
       <c r="H16" s="113">
         <v>50.137907185962199</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="113">
+        <v>82.670984675101096</v>
+      </c>
+      <c r="J16" s="113">
+        <v>82.905870699666806</v>
+      </c>
+      <c r="K16" s="113">
+        <v>82.905870699666806</v>
+      </c>
+      <c r="L16" s="20">
         <v>120.37978764038</v>
       </c>
-      <c r="J16" s="20">
-        <v>0</v>
-      </c>
-      <c r="K16" s="20">
-        <v>0</v>
-      </c>
-      <c r="L16" s="113">
+      <c r="M16" s="20">
+        <v>199.372141922418</v>
+      </c>
+      <c r="N16" s="20">
+        <v>193.32131588176</v>
+      </c>
+      <c r="O16" s="20">
+        <v>193.31888485519599</v>
+      </c>
+      <c r="P16" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="20">
+        <v>0</v>
+      </c>
+      <c r="R16" s="113">
         <v>658.81210042354394</v>
       </c>
-      <c r="M16" s="20">
+      <c r="S16" s="20">
         <v>51.157113734841197</v>
       </c>
-      <c r="N16" s="20">
+      <c r="T16" s="20">
         <v>15.869506596584801</v>
       </c>
-      <c r="O16" s="20">
+      <c r="U16" s="20">
         <v>41.332730849148398</v>
       </c>
-      <c r="P16" s="20">
+      <c r="V16" s="20">
         <v>15.869506596584801</v>
       </c>
-      <c r="R16" s="20"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W16" s="20">
+        <v>13.7396208074002</v>
+      </c>
+      <c r="X16" s="20">
+        <v>13.778442224608201</v>
+      </c>
+      <c r="Y16" s="20">
+        <v>13.7785055070688</v>
+      </c>
+      <c r="Z16" s="153">
+        <f t="shared" si="3"/>
+        <v>0.90971932247822573</v>
+      </c>
+      <c r="AA16" s="153">
+        <f t="shared" si="4"/>
+        <v>0.75446909426390918</v>
+      </c>
+      <c r="AB16" s="153">
+        <f t="shared" si="5"/>
+        <v>0.75034314923966772</v>
+      </c>
+      <c r="AC16" s="153">
+        <f t="shared" si="6"/>
+        <v>0.75034314923966772</v>
+      </c>
+      <c r="AD16" s="113">
+        <f t="shared" si="7"/>
+        <v>1.1295512592882069</v>
+      </c>
+      <c r="AE16" s="113">
+        <f t="shared" si="8"/>
+        <v>1.8624852948090678</v>
+      </c>
+      <c r="AF16" s="113">
+        <f t="shared" si="0"/>
+        <v>1.8677770155794091</v>
+      </c>
+      <c r="AG16" s="113">
+        <f t="shared" si="0"/>
+        <v>1.8677770155794091</v>
+      </c>
+      <c r="AH16" s="113">
+        <f t="shared" si="9"/>
+        <v>2.4325212014823041</v>
+      </c>
+      <c r="AI16" s="113">
+        <f t="shared" si="1"/>
+        <v>4.028724187984368</v>
+      </c>
+      <c r="AJ16" s="113">
+        <f t="shared" si="1"/>
+        <v>3.9064548027421191</v>
+      </c>
+      <c r="AK16" s="113">
+        <f t="shared" si="1"/>
+        <v>3.9064056788503576</v>
+      </c>
+      <c r="AL16" s="113">
+        <f t="shared" si="10"/>
+        <v>0.8914221284975713</v>
+      </c>
+      <c r="AM16" s="113">
+        <f t="shared" si="2"/>
+        <v>0.77178215657429416</v>
+      </c>
+      <c r="AN16" s="113">
+        <f t="shared" si="2"/>
+        <v>0.77396283372063313</v>
+      </c>
+      <c r="AO16" s="113">
+        <f t="shared" si="2"/>
+        <v>0.77396638842382326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -18816,33 +20390,123 @@
       <c r="H17" s="113">
         <v>54.079822781170201</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="113">
+        <v>86.6973828526082</v>
+      </c>
+      <c r="J17" s="113">
+        <v>82.992250339235397</v>
+      </c>
+      <c r="K17" s="113">
+        <v>82.921755420302404</v>
+      </c>
+      <c r="L17" s="20">
         <v>73.291382604458292</v>
       </c>
-      <c r="J17" s="20">
-        <v>0</v>
-      </c>
-      <c r="K17" s="20">
-        <v>0</v>
-      </c>
-      <c r="L17" s="113">
+      <c r="M17" s="20">
+        <v>113.73861484889099</v>
+      </c>
+      <c r="N17" s="20">
+        <v>109.466737954857</v>
+      </c>
+      <c r="O17" s="20">
+        <v>107.90623830557401</v>
+      </c>
+      <c r="P17" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="20">
+        <v>0</v>
+      </c>
+      <c r="R17" s="113">
         <v>710.6088713445771</v>
       </c>
-      <c r="M17" s="20">
+      <c r="S17" s="20">
         <v>51.180288678655998</v>
       </c>
-      <c r="N17" s="20">
+      <c r="T17" s="20">
         <v>17.117190416121002</v>
       </c>
-      <c r="O17" s="20">
+      <c r="U17" s="20">
         <v>41.3533426713281</v>
       </c>
-      <c r="P17" s="20">
+      <c r="V17" s="20">
         <v>17.117190416121002</v>
       </c>
-      <c r="R17" s="20"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="W17" s="20">
+        <v>15.596956243892199</v>
+      </c>
+      <c r="X17" s="20">
+        <v>16.475323670654699</v>
+      </c>
+      <c r="Y17" s="20">
+        <v>16.388303616692699</v>
+      </c>
+      <c r="Z17" s="153">
+        <f t="shared" si="3"/>
+        <v>0.84105510938265138</v>
+      </c>
+      <c r="AA17" s="153">
+        <f t="shared" si="4"/>
+        <v>0.69128202222085888</v>
+      </c>
+      <c r="AB17" s="153">
+        <f t="shared" si="5"/>
+        <v>0.68745388997863555</v>
+      </c>
+      <c r="AC17" s="153">
+        <f t="shared" si="6"/>
+        <v>0.68674997635419643</v>
+      </c>
+      <c r="AD17" s="113">
+        <f t="shared" si="7"/>
+        <v>1.2183582313873866</v>
+      </c>
+      <c r="AE17" s="113">
+        <f t="shared" si="8"/>
+        <v>1.953195565481719</v>
+      </c>
+      <c r="AF17" s="113">
+        <f t="shared" si="0"/>
+        <v>1.8697230527422621</v>
+      </c>
+      <c r="AG17" s="113">
+        <f t="shared" si="0"/>
+        <v>1.8681348806600322</v>
+      </c>
+      <c r="AH17" s="113">
+        <f t="shared" si="9"/>
+        <v>1.4810031282319127</v>
+      </c>
+      <c r="AI17" s="113">
+        <f t="shared" si="1"/>
+        <v>2.2983226459385366</v>
+      </c>
+      <c r="AJ17" s="113">
+        <f t="shared" si="1"/>
+        <v>2.2120005870734456</v>
+      </c>
+      <c r="AK17" s="113">
+        <f t="shared" si="1"/>
+        <v>2.1804674820880261</v>
+      </c>
+      <c r="AL17" s="113">
+        <f t="shared" si="10"/>
+        <v>0.96150704004373699</v>
+      </c>
+      <c r="AM17" s="113">
+        <f t="shared" si="2"/>
+        <v>0.87611242658331712</v>
+      </c>
+      <c r="AN17" s="113">
+        <f t="shared" si="2"/>
+        <v>0.92545209296816033</v>
+      </c>
+      <c r="AO17" s="113">
+        <f t="shared" si="2"/>
+        <v>0.92056400137862893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -18867,31 +20531,124 @@
       <c r="H18" s="113">
         <v>54.160621290361703</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="113">
+        <v>86.953618588138696</v>
+      </c>
+      <c r="J18" s="113">
+        <v>83.567891197058998</v>
+      </c>
+      <c r="K18" s="113">
+        <v>83.569342218690295</v>
+      </c>
+      <c r="L18" s="20">
         <v>71.636546269846392</v>
       </c>
-      <c r="J18" s="20">
-        <v>0</v>
-      </c>
-      <c r="K18" s="20">
-        <v>0</v>
-      </c>
-      <c r="L18" s="113">
+      <c r="M18" s="20">
+        <v>110.91771445826001</v>
+      </c>
+      <c r="N18" s="20">
+        <v>105.58583224117399</v>
+      </c>
+      <c r="O18" s="20">
+        <v>105.603602274922</v>
+      </c>
+      <c r="P18" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>0</v>
+      </c>
+      <c r="R18" s="113">
         <v>711.67056375535299</v>
       </c>
-      <c r="M18" s="20">
+      <c r="S18" s="20">
         <v>51.167989935250503</v>
       </c>
-      <c r="N18" s="20">
+      <c r="T18" s="20">
         <v>17.142764528535601</v>
       </c>
-      <c r="O18" s="20">
+      <c r="U18" s="20">
         <v>41.359437729381</v>
       </c>
-      <c r="P18" s="20">
+      <c r="V18" s="20">
         <v>17.142764528535601</v>
       </c>
-      <c r="R18" s="20"/>
+      <c r="W18" s="20">
+        <v>15.643004003991701</v>
+      </c>
+      <c r="X18" s="20">
+        <v>16.513776266205099</v>
+      </c>
+      <c r="Y18" s="20">
+        <v>16.514057493359001</v>
+      </c>
+      <c r="Z18" s="153">
+        <f t="shared" si="3"/>
+        <v>0.83365005957962124</v>
+      </c>
+      <c r="AA18" s="153">
+        <f t="shared" si="4"/>
+        <v>0.68466390598196025</v>
+      </c>
+      <c r="AB18" s="153">
+        <f t="shared" si="5"/>
+        <v>0.67813593857788335</v>
+      </c>
+      <c r="AC18" s="153">
+        <f t="shared" si="6"/>
+        <v>0.67813583784304432</v>
+      </c>
+      <c r="AD18" s="113">
+        <f t="shared" si="7"/>
+        <v>1.2201785318930971</v>
+      </c>
+      <c r="AE18" s="113">
+        <f t="shared" si="8"/>
+        <v>1.9589682714837786</v>
+      </c>
+      <c r="AF18" s="113">
+        <f t="shared" si="8"/>
+        <v>1.8826916007401022</v>
+      </c>
+      <c r="AG18" s="113">
+        <f t="shared" si="8"/>
+        <v>1.8827242906428698</v>
+      </c>
+      <c r="AH18" s="113">
+        <f t="shared" si="9"/>
+        <v>1.4475637564915986</v>
+      </c>
+      <c r="AI18" s="113">
+        <f t="shared" si="9"/>
+        <v>2.2413205516336467</v>
+      </c>
+      <c r="AJ18" s="113">
+        <f t="shared" si="9"/>
+        <v>2.1335789050408294</v>
+      </c>
+      <c r="AK18" s="113">
+        <f t="shared" si="9"/>
+        <v>2.1339379851213844</v>
+      </c>
+      <c r="AL18" s="113">
+        <f t="shared" si="10"/>
+        <v>0.96294358941496727</v>
+      </c>
+      <c r="AM18" s="113">
+        <f t="shared" si="10"/>
+        <v>0.87869902195543015</v>
+      </c>
+      <c r="AN18" s="113">
+        <f t="shared" si="10"/>
+        <v>0.92761205265960844</v>
+      </c>
+      <c r="AO18" s="113">
+        <f t="shared" si="10"/>
+        <v>0.92762784975491175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="Z23" s="113"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/Lolipop/Salts_Lollipop.xlsx
+++ b/Lolipop/Salts_Lollipop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Dataviz\Lolipop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B058C7-78FF-48FF-9BB4-B4E5ED0CBD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346EBD30-4986-4EA4-9087-5873FAACBBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-4755" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1966,6 +1966,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1974,12 +1980,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2533,31 +2533,31 @@
   <sheetData>
     <row r="1" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="156" t="s">
+      <c r="G1" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="157"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="159"/>
       <c r="R1" s="103" t="s">
         <v>133</v>
       </c>
       <c r="S1" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="T1" s="155" t="s">
+      <c r="T1" s="157" t="s">
         <v>140</v>
       </c>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="157"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="159"/>
     </row>
     <row r="2" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
@@ -2978,10 +2978,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="159"/>
+      <c r="D8" s="156"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -3048,10 +3048,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="159"/>
+      <c r="D9" s="156"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -3118,10 +3118,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="159"/>
+      <c r="D10" s="156"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -3187,10 +3187,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="159"/>
+      <c r="D11" s="156"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -3257,10 +3257,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="159"/>
+      <c r="D12" s="156"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -3327,10 +3327,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="158" t="s">
+      <c r="C13" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="159"/>
+      <c r="D13" s="156"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -3397,10 +3397,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="158" t="s">
+      <c r="C14" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="159"/>
+      <c r="D14" s="156"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -3467,10 +3467,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="158" t="s">
+      <c r="C15" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="159"/>
+      <c r="D15" s="156"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -3534,10 +3534,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="159"/>
+      <c r="D16" s="156"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -3601,10 +3601,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="158" t="s">
+      <c r="C17" s="155" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="159"/>
+      <c r="D17" s="156"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -3670,10 +3670,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="159"/>
+      <c r="D18" s="156"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -3740,10 +3740,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="158" t="s">
+      <c r="C19" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="159"/>
+      <c r="D19" s="156"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -3872,6 +3872,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="G1:Q1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -3881,11 +3886,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="G1:Q1"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -3901,7 +3901,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3932,29 +3932,29 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="156" t="s">
+      <c r="G1" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="156"/>
+      <c r="H1" s="158"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="156" t="s">
+      <c r="N1" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="156"/>
-      <c r="X1" s="156"/>
-      <c r="Y1" s="156"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
       <c r="AB1" s="9"/>
@@ -4684,10 +4684,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="159"/>
+      <c r="D8" s="156"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -4799,10 +4799,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="159"/>
+      <c r="D9" s="156"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -4914,10 +4914,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="159"/>
+      <c r="D10" s="156"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -5028,10 +5028,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="159"/>
+      <c r="D11" s="156"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -5143,10 +5143,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="159"/>
+      <c r="D12" s="156"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -5258,10 +5258,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="158" t="s">
+      <c r="C13" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="159"/>
+      <c r="D13" s="156"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -5376,10 +5376,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="158" t="s">
+      <c r="C14" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="159"/>
+      <c r="D14" s="156"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -5494,10 +5494,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="158" t="s">
+      <c r="C15" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="159"/>
+      <c r="D15" s="156"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -5612,10 +5612,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="159"/>
+      <c r="D16" s="156"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -5730,10 +5730,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="158" t="s">
+      <c r="C17" s="155" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="159"/>
+      <c r="D17" s="156"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -5848,10 +5848,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="159"/>
+      <c r="D18" s="156"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -5966,10 +5966,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="158" t="s">
+      <c r="C19" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="159"/>
+      <c r="D19" s="156"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -6461,12 +6461,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -6475,6 +6469,12 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -6520,10 +6520,10 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="156" t="s">
+      <c r="G1" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="156"/>
+      <c r="H1" s="158"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -7274,10 +7274,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="159"/>
+      <c r="D8" s="156"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -7389,10 +7389,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="159"/>
+      <c r="D9" s="156"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -7504,10 +7504,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="159"/>
+      <c r="D10" s="156"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -7618,10 +7618,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="159"/>
+      <c r="D11" s="156"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -7733,10 +7733,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="159"/>
+      <c r="D12" s="156"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -7848,10 +7848,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="158" t="s">
+      <c r="C13" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="159"/>
+      <c r="D13" s="156"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -7966,10 +7966,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="158" t="s">
+      <c r="C14" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="159"/>
+      <c r="D14" s="156"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -8084,10 +8084,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="158" t="s">
+      <c r="C15" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="159"/>
+      <c r="D15" s="156"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -8202,10 +8202,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="159"/>
+      <c r="D16" s="156"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -8320,10 +8320,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="158" t="s">
+      <c r="C17" s="155" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="159"/>
+      <c r="D17" s="156"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -8438,10 +8438,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="159"/>
+      <c r="D18" s="156"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -8556,10 +8556,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="158" t="s">
+      <c r="C19" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="159"/>
+      <c r="D19" s="156"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -9054,10 +9054,10 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="156" t="s">
+      <c r="G1" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="156"/>
+      <c r="H1" s="158"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -9808,10 +9808,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="159"/>
+      <c r="D8" s="156"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -9923,10 +9923,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="159"/>
+      <c r="D9" s="156"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -10038,10 +10038,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="159"/>
+      <c r="D10" s="156"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -10152,10 +10152,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="159"/>
+      <c r="D11" s="156"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -10267,10 +10267,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="159"/>
+      <c r="D12" s="156"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -10382,10 +10382,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="158" t="s">
+      <c r="C13" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="159"/>
+      <c r="D13" s="156"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -10500,10 +10500,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="158" t="s">
+      <c r="C14" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="159"/>
+      <c r="D14" s="156"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -10618,10 +10618,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="158" t="s">
+      <c r="C15" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="159"/>
+      <c r="D15" s="156"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -10736,10 +10736,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="159"/>
+      <c r="D16" s="156"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -10854,10 +10854,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="158" t="s">
+      <c r="C17" s="155" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="159"/>
+      <c r="D17" s="156"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -10972,10 +10972,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="159"/>
+      <c r="D18" s="156"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -11090,10 +11090,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="158" t="s">
+      <c r="C19" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="159"/>
+      <c r="D19" s="156"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -11569,7 +11569,7 @@
   <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
@@ -11596,10 +11596,10 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="156" t="s">
+      <c r="G1" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="156"/>
+      <c r="H1" s="158"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -12350,10 +12350,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="159"/>
+      <c r="D8" s="156"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -12465,10 +12465,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="159"/>
+      <c r="D9" s="156"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -12580,10 +12580,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="159"/>
+      <c r="D10" s="156"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -12694,10 +12694,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="159"/>
+      <c r="D11" s="156"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -12809,10 +12809,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="159"/>
+      <c r="D12" s="156"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -12924,10 +12924,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="158" t="s">
+      <c r="C13" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="159"/>
+      <c r="D13" s="156"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -13042,10 +13042,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="158" t="s">
+      <c r="C14" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="159"/>
+      <c r="D14" s="156"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -13160,10 +13160,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="158" t="s">
+      <c r="C15" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="159"/>
+      <c r="D15" s="156"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -13278,10 +13278,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="159"/>
+      <c r="D16" s="156"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -13396,10 +13396,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="158" t="s">
+      <c r="C17" s="155" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="159"/>
+      <c r="D17" s="156"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -13514,10 +13514,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="159"/>
+      <c r="D18" s="156"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -13632,10 +13632,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="158" t="s">
+      <c r="C19" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="159"/>
+      <c r="D19" s="156"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -14520,10 +14520,10 @@
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="159"/>
+      <c r="D9" s="156"/>
       <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
@@ -14598,10 +14598,10 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="159"/>
+      <c r="D10" s="156"/>
       <c r="E10" s="121" t="s">
         <v>17</v>
       </c>
@@ -14676,10 +14676,10 @@
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="159"/>
+      <c r="D11" s="156"/>
       <c r="E11" s="118" t="s">
         <v>13</v>
       </c>
@@ -14753,10 +14753,10 @@
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="159"/>
+      <c r="D12" s="156"/>
       <c r="E12" s="119" t="s">
         <v>107</v>
       </c>
@@ -14831,10 +14831,10 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="158" t="s">
+      <c r="C13" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="159"/>
+      <c r="D13" s="156"/>
       <c r="E13" s="120" t="s">
         <v>108</v>
       </c>
@@ -14909,10 +14909,10 @@
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14" s="158" t="s">
+      <c r="C14" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="159"/>
+      <c r="D14" s="156"/>
       <c r="E14" s="118" t="s">
         <v>1</v>
       </c>
@@ -14990,10 +14990,10 @@
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15" s="158" t="s">
+      <c r="C15" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="159"/>
+      <c r="D15" s="156"/>
       <c r="E15" s="121" t="s">
         <v>17</v>
       </c>
@@ -15071,10 +15071,10 @@
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="159"/>
+      <c r="D16" s="156"/>
       <c r="E16" s="54" t="s">
         <v>14</v>
       </c>
@@ -15152,10 +15152,10 @@
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17" s="158" t="s">
+      <c r="C17" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="159"/>
+      <c r="D17" s="156"/>
       <c r="E17" s="53" t="s">
         <v>12</v>
       </c>
@@ -15233,10 +15233,10 @@
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="155" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="159"/>
+      <c r="D18" s="156"/>
       <c r="E18" s="118" t="s">
         <v>13</v>
       </c>
@@ -15314,10 +15314,10 @@
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19" s="158" t="s">
+      <c r="C19" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="159"/>
+      <c r="D19" s="156"/>
       <c r="E19" s="119" t="s">
         <v>107</v>
       </c>
@@ -15395,10 +15395,10 @@
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20" s="158" t="s">
+      <c r="C20" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="159"/>
+      <c r="D20" s="156"/>
       <c r="E20" s="120" t="s">
         <v>108</v>
       </c>
@@ -15578,29 +15578,29 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="156" t="s">
+      <c r="G1" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="156"/>
+      <c r="H1" s="158"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="156" t="s">
+      <c r="N1" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="156"/>
-      <c r="X1" s="156"/>
-      <c r="Y1" s="156"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
       <c r="AB1" s="9"/>
@@ -16330,10 +16330,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="159"/>
+      <c r="D8" s="156"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -16445,10 +16445,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="159"/>
+      <c r="D9" s="156"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -16560,10 +16560,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="159"/>
+      <c r="D10" s="156"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -16674,10 +16674,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="159"/>
+      <c r="D11" s="156"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -16789,10 +16789,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="159"/>
+      <c r="D12" s="156"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -16904,10 +16904,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="158" t="s">
+      <c r="C13" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="159"/>
+      <c r="D13" s="156"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -17022,10 +17022,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="158" t="s">
+      <c r="C14" s="155" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="159"/>
+      <c r="D14" s="156"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -17140,10 +17140,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="158" t="s">
+      <c r="C15" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="159"/>
+      <c r="D15" s="156"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -17258,10 +17258,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="159"/>
+      <c r="D16" s="156"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -17376,10 +17376,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="158" t="s">
+      <c r="C17" s="155" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="159"/>
+      <c r="D17" s="156"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -17494,10 +17494,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="159"/>
+      <c r="D18" s="156"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -17612,10 +17612,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="158" t="s">
+      <c r="C19" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="159"/>
+      <c r="D19" s="156"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -18084,7 +18084,7 @@
   <dimension ref="A1:BA23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AY14" sqref="AY14"/>
+      <selection activeCell="BA17" sqref="BA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18390,6 +18390,54 @@
         <f t="shared" si="2"/>
         <v>0.91532792028756671</v>
       </c>
+      <c r="AP2" s="113">
+        <f>Caso3!O3/1.8</f>
+        <v>1.743266111111111</v>
+      </c>
+      <c r="AQ2" s="113">
+        <f>Caso4!O3/1.8</f>
+        <v>1.7712526666666668</v>
+      </c>
+      <c r="AR2" s="113">
+        <f>Caso5!O3/1.8</f>
+        <v>1.7712526666666668</v>
+      </c>
+      <c r="AS2" s="113">
+        <f>Caso3!P3/7.5</f>
+        <v>1.3363633333333333</v>
+      </c>
+      <c r="AT2" s="113">
+        <f>Caso4!P3/7.5</f>
+        <v>1.4644528000000001</v>
+      </c>
+      <c r="AU2" s="113">
+        <f>Caso5!P3/7.5</f>
+        <v>1.4644528000000001</v>
+      </c>
+      <c r="AV2" s="113">
+        <f>Caso3!Q3/100</f>
+        <v>1</v>
+      </c>
+      <c r="AW2" s="113">
+        <f>Caso4!Q3/100</f>
+        <v>0.60002440000000001</v>
+      </c>
+      <c r="AX2" s="113">
+        <f>Caso5!Q3/100</f>
+        <v>0.60002440000000001</v>
+      </c>
+      <c r="AY2" s="113">
+        <f>Caso3!R3/393</f>
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="113">
+        <f>Caso4!R3/393</f>
+        <v>1</v>
+      </c>
+      <c r="BA2" s="113">
+        <f>Caso5!R3/393</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -18531,6 +18579,54 @@
         <f t="shared" si="2"/>
         <v>0.91013402563435897</v>
       </c>
+      <c r="AP3" s="113">
+        <f>Caso3!O4/1.8</f>
+        <v>1.7268400000000002</v>
+      </c>
+      <c r="AQ3" s="113">
+        <f>Caso4!O4/1.8</f>
+        <v>1.7830594444444443</v>
+      </c>
+      <c r="AR3" s="113">
+        <f>Caso5!O4/1.8</f>
+        <v>1.7830594444444443</v>
+      </c>
+      <c r="AS3" s="113">
+        <f>Caso3!P4/7.5</f>
+        <v>1.3509066666666667</v>
+      </c>
+      <c r="AT3" s="113">
+        <f>Caso4!P4/7.5</f>
+        <v>1.4452033333333332</v>
+      </c>
+      <c r="AU3" s="113">
+        <f>Caso5!P4/7.5</f>
+        <v>1.4452033333333332</v>
+      </c>
+      <c r="AV3" s="113">
+        <f>Caso3!Q4/100</f>
+        <v>1</v>
+      </c>
+      <c r="AW3" s="113">
+        <f>Caso4!Q4/100</f>
+        <v>0.60030250000000007</v>
+      </c>
+      <c r="AX3" s="113">
+        <f>Caso5!Q4/100</f>
+        <v>0.60030250000000007</v>
+      </c>
+      <c r="AY3" s="113">
+        <f>Caso3!R4/393</f>
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="113">
+        <f>Caso4!R4/393</f>
+        <v>1</v>
+      </c>
+      <c r="BA3" s="113">
+        <f>Caso5!R4/393</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -18672,6 +18768,54 @@
         <f t="shared" si="2"/>
         <v>0.9035712682305711</v>
       </c>
+      <c r="AP4" s="113">
+        <f>Caso3!O5/1.8</f>
+        <v>1.7761192222222222</v>
+      </c>
+      <c r="AQ4" s="113">
+        <f>Caso4!O5/1.8</f>
+        <v>1.7829783333333333</v>
+      </c>
+      <c r="AR4" s="113">
+        <f>Caso5!O5/1.8</f>
+        <v>1.7829783333333333</v>
+      </c>
+      <c r="AS4" s="113">
+        <f>Caso3!P5/7.5</f>
+        <v>1.3455249333333335</v>
+      </c>
+      <c r="AT4" s="113">
+        <f>Caso4!P5/7.5</f>
+        <v>1.4190072</v>
+      </c>
+      <c r="AU4" s="113">
+        <f>Caso5!P5/7.5</f>
+        <v>1.4190072</v>
+      </c>
+      <c r="AV4" s="113">
+        <f>Caso3!Q5/100</f>
+        <v>1</v>
+      </c>
+      <c r="AW4" s="113">
+        <f>Caso4!Q5/100</f>
+        <v>0.60005070000000005</v>
+      </c>
+      <c r="AX4" s="113">
+        <f>Caso5!Q5/100</f>
+        <v>0.60005070000000005</v>
+      </c>
+      <c r="AY4" s="113">
+        <f>Caso3!R5/393</f>
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="113">
+        <f>Caso4!R5/393</f>
+        <v>1</v>
+      </c>
+      <c r="BA4" s="113">
+        <f>Caso5!R5/393</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -18813,6 +18957,54 @@
         <f t="shared" si="2"/>
         <v>0.90715312252507663</v>
       </c>
+      <c r="AP5" s="113">
+        <f>Caso3!O6/1.8</f>
+        <v>1.7720127222222222</v>
+      </c>
+      <c r="AQ5" s="113">
+        <f>Caso4!O6/1.8</f>
+        <v>1.782967</v>
+      </c>
+      <c r="AR5" s="113">
+        <f>Caso5!O6/1.8</f>
+        <v>1.7829671111111112</v>
+      </c>
+      <c r="AS5" s="113">
+        <f>Caso3!P6/7.5</f>
+        <v>1.3378333333333332</v>
+      </c>
+      <c r="AT5" s="113">
+        <f>Caso4!P6/7.5</f>
+        <v>1.4139366666666668</v>
+      </c>
+      <c r="AU5" s="113">
+        <f>Caso5!P6/7.5</f>
+        <v>1.413994</v>
+      </c>
+      <c r="AV5" s="113">
+        <f>Caso3!Q6/100</f>
+        <v>1</v>
+      </c>
+      <c r="AW5" s="113">
+        <f>Caso4!Q6/100</f>
+        <v>0.60001519999999997</v>
+      </c>
+      <c r="AX5" s="113">
+        <f>Caso5!Q6/100</f>
+        <v>0.60001599999999999</v>
+      </c>
+      <c r="AY5" s="113">
+        <f>Caso3!R6/393</f>
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="113">
+        <f>Caso4!R6/393</f>
+        <v>1</v>
+      </c>
+      <c r="BA5" s="113">
+        <f>Caso5!R6/393</f>
+        <v>0.99999974554707383</v>
+      </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -18954,6 +19146,54 @@
         <f t="shared" si="2"/>
         <v>0.91071297044753763</v>
       </c>
+      <c r="AP6" s="113">
+        <f>Caso3!O7/1.8</f>
+        <v>1.7268400000000002</v>
+      </c>
+      <c r="AQ6" s="113">
+        <f>Caso4!O7/1.8</f>
+        <v>1.7829966666666666</v>
+      </c>
+      <c r="AR6" s="113">
+        <f>Caso5!O7/1.8</f>
+        <v>1.7829952222222221</v>
+      </c>
+      <c r="AS6" s="113">
+        <f>Caso3!P7/7.5</f>
+        <v>1.3858526666666668</v>
+      </c>
+      <c r="AT6" s="113">
+        <f>Caso4!P7/7.5</f>
+        <v>1.4506733333333335</v>
+      </c>
+      <c r="AU6" s="113">
+        <f>Caso5!P7/7.5</f>
+        <v>1.4506666666666668</v>
+      </c>
+      <c r="AV6" s="113">
+        <f>Caso3!Q7/100</f>
+        <v>1</v>
+      </c>
+      <c r="AW6" s="113">
+        <f>Caso4!Q7/100</f>
+        <v>0.60010708000000001</v>
+      </c>
+      <c r="AX6" s="113">
+        <f>Caso5!Q7/100</f>
+        <v>0.60010420000000009</v>
+      </c>
+      <c r="AY6" s="113">
+        <f>Caso3!R7/393</f>
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="113">
+        <f>Caso4!R7/393</f>
+        <v>1</v>
+      </c>
+      <c r="BA6" s="113">
+        <f>Caso5!R7/393</f>
+        <v>0.99999898218829508</v>
+      </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -19095,6 +19335,54 @@
         <f t="shared" si="2"/>
         <v>0.85825657035626335</v>
       </c>
+      <c r="AP7" s="113">
+        <f>Caso3!O8/1.8</f>
+        <v>2.3824727777777777</v>
+      </c>
+      <c r="AQ7" s="113">
+        <f>Caso4!O8/1.8</f>
+        <v>2.4442155555555551</v>
+      </c>
+      <c r="AR7" s="113">
+        <f>Caso5!O8/1.8</f>
+        <v>2.1658972222222221</v>
+      </c>
+      <c r="AS7" s="113">
+        <f>Caso3!P8/7.5</f>
+        <v>1.8058000000000001</v>
+      </c>
+      <c r="AT7" s="113">
+        <f>Caso4!P8/7.5</f>
+        <v>1.7999932000000001</v>
+      </c>
+      <c r="AU7" s="113">
+        <f>Caso5!P8/7.5</f>
+        <v>1.7666533333333334</v>
+      </c>
+      <c r="AV7" s="113">
+        <f>Caso3!Q8/100</f>
+        <v>1</v>
+      </c>
+      <c r="AW7" s="113">
+        <f>Caso4!Q8/100</f>
+        <v>1.0468000000000002</v>
+      </c>
+      <c r="AX7" s="113">
+        <f>Caso5!Q8/100</f>
+        <v>1.1784543999999999</v>
+      </c>
+      <c r="AY7" s="113">
+        <f>Caso3!R8/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="AZ7" s="113">
+        <f>Caso4!R8/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="BA7" s="113">
+        <f>Caso5!R8/393</f>
+        <v>1.3134656488549619</v>
+      </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -19236,6 +19524,54 @@
         <f t="shared" si="2"/>
         <v>0.87052192577778353</v>
       </c>
+      <c r="AP8" s="113">
+        <f>Caso3!O9/1.8</f>
+        <v>2.2714538888888889</v>
+      </c>
+      <c r="AQ8" s="113">
+        <f>Caso4!O9/1.8</f>
+        <v>2.3325033333333334</v>
+      </c>
+      <c r="AR8" s="113">
+        <f>Caso5!O9/1.8</f>
+        <v>2.1666666111111113</v>
+      </c>
+      <c r="AS8" s="113">
+        <f>Caso3!P9/7.5</f>
+        <v>1.7930654666666668</v>
+      </c>
+      <c r="AT8" s="113">
+        <f>Caso4!P9/7.5</f>
+        <v>1.8407313333333333</v>
+      </c>
+      <c r="AU8" s="113">
+        <f>Caso5!P9/7.5</f>
+        <v>1.8013333333333332</v>
+      </c>
+      <c r="AV8" s="113">
+        <f>Caso3!Q9/100</f>
+        <v>1</v>
+      </c>
+      <c r="AW8" s="113">
+        <f>Caso4!Q9/100</f>
+        <v>0.88184889999999994</v>
+      </c>
+      <c r="AX8" s="113">
+        <f>Caso5!Q9/100</f>
+        <v>0.89011619999999991</v>
+      </c>
+      <c r="AY8" s="113">
+        <f>Caso3!R9/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="AZ8" s="113">
+        <f>Caso4!R9/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="BA8" s="113">
+        <f>Caso5!R9/393</f>
+        <v>1.317150127226463</v>
+      </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -19377,6 +19713,54 @@
         <f t="shared" si="2"/>
         <v>0.7769600407525058</v>
       </c>
+      <c r="AP9" s="113">
+        <f>Caso3!O10/1.8</f>
+        <v>2.3824727777777777</v>
+      </c>
+      <c r="AQ9" s="113">
+        <f>Caso4!O10/1.8</f>
+        <v>2.3310494444444445</v>
+      </c>
+      <c r="AR9" s="113">
+        <f>Caso5!O10/1.8</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AS9" s="113">
+        <f>Caso3!P10/7.5</f>
+        <v>1.8733983333333333</v>
+      </c>
+      <c r="AT9" s="113">
+        <f>Caso4!P10/7.5</f>
+        <v>1.8698965333333333</v>
+      </c>
+      <c r="AU9" s="113">
+        <f>Caso5!P10/7.5</f>
+        <v>1.8731332000000001</v>
+      </c>
+      <c r="AV9" s="113">
+        <f>Caso3!Q10/100</f>
+        <v>1</v>
+      </c>
+      <c r="AW9" s="113">
+        <f>Caso4!Q10/100</f>
+        <v>0.89567430000000003</v>
+      </c>
+      <c r="AX9" s="113">
+        <f>Caso5!Q10/100</f>
+        <v>0.92295209999999994</v>
+      </c>
+      <c r="AY9" s="113">
+        <f>Caso3!R10/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="AZ9" s="113">
+        <f>Caso4!R10/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="BA9" s="113">
+        <f>Caso5!R10/393</f>
+        <v>1.4404073791348602</v>
+      </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -19518,6 +19902,54 @@
         <f t="shared" si="2"/>
         <v>0.83224530477108682</v>
       </c>
+      <c r="AP10" s="113">
+        <f>Caso3!O11/1.8</f>
+        <v>2.3824727777777777</v>
+      </c>
+      <c r="AQ10" s="113">
+        <f>Caso4!O11/1.8</f>
+        <v>2.3888888888888888</v>
+      </c>
+      <c r="AR10" s="113">
+        <f>Caso5!O11/1.8</f>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="AS10" s="113">
+        <f>Caso3!P11/7.5</f>
+        <v>1.8061196666666668</v>
+      </c>
+      <c r="AT10" s="113">
+        <f>Caso4!P11/7.5</f>
+        <v>1.8066733333333334</v>
+      </c>
+      <c r="AU10" s="113">
+        <f>Caso5!P11/7.5</f>
+        <v>1.3141245333333333</v>
+      </c>
+      <c r="AV10" s="113">
+        <f>Caso3!Q11/100</f>
+        <v>1</v>
+      </c>
+      <c r="AW10" s="113">
+        <f>Caso4!Q11/100</f>
+        <v>1.2121131000000001</v>
+      </c>
+      <c r="AX10" s="113">
+        <f>Caso5!Q11/100</f>
+        <v>1.0664108000000001</v>
+      </c>
+      <c r="AY10" s="113">
+        <f>Caso3!R11/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="AZ10" s="113">
+        <f>Caso4!R11/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="BA10" s="113">
+        <f>Caso5!R11/393</f>
+        <v>1.3087536895674299</v>
+      </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -19659,6 +20091,54 @@
         <f t="shared" si="2"/>
         <v>0.76942502973040039</v>
       </c>
+      <c r="AP11" s="113">
+        <f>Caso3!O12/1.8</f>
+        <v>2.3425061111111107</v>
+      </c>
+      <c r="AQ11" s="113">
+        <f>Caso4!O12/1.8</f>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="AR11" s="113">
+        <f>Caso5!O12/1.8</f>
+        <v>2.2218316666666666</v>
+      </c>
+      <c r="AS11" s="113">
+        <f>Caso3!P12/7.5</f>
+        <v>1.7799394666666666</v>
+      </c>
+      <c r="AT11" s="113">
+        <f>Caso4!P12/7.5</f>
+        <v>1.7599400000000001</v>
+      </c>
+      <c r="AU11" s="113">
+        <f>Caso5!P12/7.5</f>
+        <v>1.2266800000000002</v>
+      </c>
+      <c r="AV11" s="113">
+        <f>Caso3!Q12/100</f>
+        <v>1</v>
+      </c>
+      <c r="AW11" s="113">
+        <f>Caso4!Q12/100</f>
+        <v>1.3749171000000002</v>
+      </c>
+      <c r="AX11" s="113">
+        <f>Caso5!Q12/100</f>
+        <v>1.3498373000000001</v>
+      </c>
+      <c r="AY11" s="113">
+        <f>Caso3!R12/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="AZ11" s="113">
+        <f>Caso4!R12/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="BA11" s="113">
+        <f>Caso5!R12/393</f>
+        <v>1.3134656488549619</v>
+      </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -19800,6 +20280,54 @@
         <f t="shared" si="2"/>
         <v>0.85273477937821851</v>
       </c>
+      <c r="AP12" s="113">
+        <f>Caso3!O13/1.8</f>
+        <v>1.6823338333333333</v>
+      </c>
+      <c r="AQ12" s="113">
+        <f>Caso4!O13/1.8</f>
+        <v>1.6828888888888889</v>
+      </c>
+      <c r="AR12" s="113">
+        <f>Caso5!O13/1.8</f>
+        <v>1.7220310555555556</v>
+      </c>
+      <c r="AS12" s="113">
+        <f>Caso3!P13/7.5</f>
+        <v>1.8058015999999999</v>
+      </c>
+      <c r="AT12" s="113">
+        <f>Caso4!P13/7.5</f>
+        <v>1.8052600000000001</v>
+      </c>
+      <c r="AU12" s="113">
+        <f>Caso5!P13/7.5</f>
+        <v>1.8051999999999999</v>
+      </c>
+      <c r="AV12" s="113">
+        <f>Caso3!Q13/100</f>
+        <v>1</v>
+      </c>
+      <c r="AW12" s="113">
+        <f>Caso4!Q13/100</f>
+        <v>0.87976359999999998</v>
+      </c>
+      <c r="AX12" s="113">
+        <f>Caso5!Q13/100</f>
+        <v>0.87634270000000003</v>
+      </c>
+      <c r="AY12" s="113">
+        <f>Caso3!R13/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="AZ12" s="113">
+        <f>Caso4!R13/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="BA12" s="113">
+        <f>Caso5!R13/393</f>
+        <v>1.4374460559796438</v>
+      </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -19941,6 +20469,54 @@
         <f t="shared" si="2"/>
         <v>0.85708339743508954</v>
       </c>
+      <c r="AP13" s="113">
+        <f>Caso3!O14/1.8</f>
+        <v>1.7220222222222221</v>
+      </c>
+      <c r="AQ13" s="113">
+        <f>Caso4!O14/1.8</f>
+        <v>1.7220077777777776</v>
+      </c>
+      <c r="AR13" s="113">
+        <f>Caso5!O14/1.8</f>
+        <v>1.722032222222222</v>
+      </c>
+      <c r="AS13" s="113">
+        <f>Caso3!P14/7.5</f>
+        <v>1.8080666666666665</v>
+      </c>
+      <c r="AT13" s="113">
+        <f>Caso4!P14/7.5</f>
+        <v>1.8059993333333333</v>
+      </c>
+      <c r="AU13" s="113">
+        <f>Caso5!P14/7.5</f>
+        <v>1.8065801333333333</v>
+      </c>
+      <c r="AV13" s="113">
+        <f>Caso3!Q14/100</f>
+        <v>1</v>
+      </c>
+      <c r="AW13" s="113">
+        <f>Caso4!Q14/100</f>
+        <v>0.90170039999999996</v>
+      </c>
+      <c r="AX13" s="113">
+        <f>Caso5!Q14/100</f>
+        <v>0.90505060000000004</v>
+      </c>
+      <c r="AY13" s="113">
+        <f>Caso3!R14/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="AZ13" s="113">
+        <f>Caso4!R14/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="BA13" s="113">
+        <f>Caso5!R14/393</f>
+        <v>1.4376590330788803</v>
+      </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -20082,6 +20658,54 @@
         <f t="shared" si="2"/>
         <v>0.78195336636346047</v>
       </c>
+      <c r="AP14" s="113">
+        <f>Caso3!O15/1.8</f>
+        <v>1.1561038888888888</v>
+      </c>
+      <c r="AQ14" s="113">
+        <f>Caso4!O15/1.8</f>
+        <v>1.1559053333333333</v>
+      </c>
+      <c r="AR14" s="113">
+        <f>Caso5!O15/1.8</f>
+        <v>1.6808166666666666</v>
+      </c>
+      <c r="AS14" s="113">
+        <f>Caso3!P15/7.5</f>
+        <v>1.1005393333333333</v>
+      </c>
+      <c r="AT14" s="113">
+        <f>Caso4!P15/7.5</f>
+        <v>1.1133866666666667</v>
+      </c>
+      <c r="AU14" s="113">
+        <f>Caso5!P15/7.5</f>
+        <v>1.7440333333333333</v>
+      </c>
+      <c r="AV14" s="113">
+        <f>Caso3!Q15/100</f>
+        <v>1</v>
+      </c>
+      <c r="AW14" s="113">
+        <f>Caso4!Q15/100</f>
+        <v>0.69848219999999994</v>
+      </c>
+      <c r="AX14" s="113">
+        <f>Caso5!Q15/100</f>
+        <v>0.6869826</v>
+      </c>
+      <c r="AY14" s="113">
+        <f>Caso3!R15/393</f>
+        <v>1.83206106870229</v>
+      </c>
+      <c r="AZ14" s="113">
+        <f>Caso4!R15/393</f>
+        <v>1.83206106870229</v>
+      </c>
+      <c r="BA14" s="113">
+        <f>Caso5!R15/393</f>
+        <v>1.83206106870229</v>
+      </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -20223,6 +20847,54 @@
         <f t="shared" si="2"/>
         <v>0.8366240315768716</v>
       </c>
+      <c r="AP15" s="113">
+        <f>Caso3!O16/1.8</f>
+        <v>1.6823801666666667</v>
+      </c>
+      <c r="AQ15" s="113">
+        <f>Caso4!O16/1.8</f>
+        <v>1.7098011111111111</v>
+      </c>
+      <c r="AR15" s="113">
+        <f>Caso5!O16/1.8</f>
+        <v>1.7098005555555553</v>
+      </c>
+      <c r="AS15" s="113">
+        <f>Caso3!P16/7.5</f>
+        <v>1.7246730666666668</v>
+      </c>
+      <c r="AT15" s="113">
+        <f>Caso4!P16/7.5</f>
+        <v>1.7244899999999999</v>
+      </c>
+      <c r="AU15" s="113">
+        <f>Caso5!P16/7.5</f>
+        <v>1.7245022666666665</v>
+      </c>
+      <c r="AV15" s="113">
+        <f>Caso3!Q16/100</f>
+        <v>1</v>
+      </c>
+      <c r="AW15" s="113">
+        <f>Caso4!Q16/100</f>
+        <v>0.68335364999999992</v>
+      </c>
+      <c r="AX15" s="113">
+        <f>Caso5!Q16/100</f>
+        <v>0.68154915000000005</v>
+      </c>
+      <c r="AY15" s="113">
+        <f>Caso3!R16/393</f>
+        <v>1.83206106870229</v>
+      </c>
+      <c r="AZ15" s="113">
+        <f>Caso4!R16/393</f>
+        <v>1.83206106870229</v>
+      </c>
+      <c r="BA15" s="113">
+        <f>Caso5!R16/393</f>
+        <v>1.83206106870229</v>
+      </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -20364,8 +21036,56 @@
         <f t="shared" si="2"/>
         <v>0.77396638842382326</v>
       </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP16" s="113">
+        <f>Caso3!O17/1.8</f>
+        <v>1.8121066666666665</v>
+      </c>
+      <c r="AQ16" s="113">
+        <f>Caso4!O17/1.8</f>
+        <v>1.8122196111111111</v>
+      </c>
+      <c r="AR16" s="113">
+        <f>Caso5!O17/1.8</f>
+        <v>1.8122196111111111</v>
+      </c>
+      <c r="AS16" s="113">
+        <f>Caso3!P17/7.5</f>
+        <v>1.8158059999999998</v>
+      </c>
+      <c r="AT16" s="113">
+        <f>Caso4!P17/7.5</f>
+        <v>1.814006</v>
+      </c>
+      <c r="AU16" s="113">
+        <f>Caso5!P17/7.5</f>
+        <v>1.814006</v>
+      </c>
+      <c r="AV16" s="113">
+        <f>Caso3!Q17/100</f>
+        <v>1</v>
+      </c>
+      <c r="AW16" s="113">
+        <f>Caso4!Q17/100</f>
+        <v>0.87537980000000004</v>
+      </c>
+      <c r="AX16" s="113">
+        <f>Caso5!Q17/100</f>
+        <v>0.87537980000000004</v>
+      </c>
+      <c r="AY16" s="113">
+        <f>Caso3!R17/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="AZ16" s="113">
+        <f>Caso4!R17/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="BA16" s="113">
+        <f>Caso5!R17/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -20505,8 +21225,56 @@
         <f t="shared" si="2"/>
         <v>0.92056400137862893</v>
       </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP17" s="113">
+        <f>Caso3!O18/1.8</f>
+        <v>1.6838594444444444</v>
+      </c>
+      <c r="AQ17" s="113">
+        <f>Caso4!O18/1.8</f>
+        <v>1.5056044444444443</v>
+      </c>
+      <c r="AR17" s="113">
+        <f>Caso5!O18/1.8</f>
+        <v>1.5099427777777776</v>
+      </c>
+      <c r="AS17" s="113">
+        <f>Caso3!P18/7.5</f>
+        <v>1.7525922666666667</v>
+      </c>
+      <c r="AT17" s="113">
+        <f>Caso4!P18/7.5</f>
+        <v>1.5765918666666667</v>
+      </c>
+      <c r="AU17" s="113">
+        <f>Caso5!P18/7.5</f>
+        <v>1.5907321333333333</v>
+      </c>
+      <c r="AV17" s="113">
+        <f>Caso3!Q18/100</f>
+        <v>1</v>
+      </c>
+      <c r="AW17" s="113">
+        <f>Caso4!Q18/100</f>
+        <v>1.5901949</v>
+      </c>
+      <c r="AX17" s="113">
+        <f>Caso5!Q18/100</f>
+        <v>1.368255</v>
+      </c>
+      <c r="AY17" s="113">
+        <f>Caso3!R18/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="AZ17" s="113">
+        <f>Caso4!R18/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="BA17" s="113">
+        <f>Caso5!R18/393</f>
+        <v>1.4376587786259543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -20646,8 +21414,56 @@
         <f t="shared" si="10"/>
         <v>0.92762784975491175</v>
       </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP18" s="113">
+        <f>Caso3!O19/1.8</f>
+        <v>1.6838594444444444</v>
+      </c>
+      <c r="AQ18" s="113">
+        <f>Caso4!O19/1.8</f>
+        <v>1.5099149444444444</v>
+      </c>
+      <c r="AR18" s="113">
+        <f>Caso5!O19/1.8</f>
+        <v>1.5099323888888889</v>
+      </c>
+      <c r="AS18" s="113">
+        <f>Caso3!P19/7.5</f>
+        <v>1.7982968666666668</v>
+      </c>
+      <c r="AT18" s="113">
+        <f>Caso4!P19/7.5</f>
+        <v>1.7008664</v>
+      </c>
+      <c r="AU18" s="113">
+        <f>Caso5!P19/7.5</f>
+        <v>1.7006659999999998</v>
+      </c>
+      <c r="AV18" s="113">
+        <f>Caso3!Q19/100</f>
+        <v>1</v>
+      </c>
+      <c r="AW18" s="113">
+        <f>Caso4!Q19/100</f>
+        <v>1.5496888999999998</v>
+      </c>
+      <c r="AX18" s="113">
+        <f>Caso5!Q19/100</f>
+        <v>1.5533672000000001</v>
+      </c>
+      <c r="AY18" s="113">
+        <f>Caso3!R19/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="AZ18" s="113">
+        <f>Caso4!R19/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+      <c r="BA18" s="113">
+        <f>Caso5!R19/393</f>
+        <v>1.4376590330788803</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="Z23" s="113"/>
     </row>
   </sheetData>

--- a/Lolipop/Salts_Lollipop.xlsx
+++ b/Lolipop/Salts_Lollipop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Dataviz\Lolipop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346EBD30-4986-4EA4-9087-5873FAACBBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B12CA0F-FC7A-4056-843F-E9D1DDE827FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4755" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="2" r:id="rId1"/>
@@ -1966,12 +1966,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1980,6 +1974,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2533,31 +2533,31 @@
   <sheetData>
     <row r="1" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="158" t="s">
+      <c r="G1" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="158"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="159"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="157"/>
       <c r="R1" s="103" t="s">
         <v>133</v>
       </c>
       <c r="S1" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="T1" s="157" t="s">
+      <c r="T1" s="155" t="s">
         <v>140</v>
       </c>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="159"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="157"/>
     </row>
     <row r="2" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
@@ -2978,10 +2978,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="156"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -3048,10 +3048,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="156"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -3118,10 +3118,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="156"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -3187,10 +3187,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="156"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -3257,10 +3257,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="156"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -3327,10 +3327,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="155" t="s">
+      <c r="C13" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="156"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -3397,10 +3397,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="155" t="s">
+      <c r="C14" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="156"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -3467,10 +3467,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="155" t="s">
+      <c r="C15" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="156"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -3534,10 +3534,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="155" t="s">
+      <c r="C16" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="156"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -3601,10 +3601,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="155" t="s">
+      <c r="C17" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="156"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -3670,10 +3670,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="155" t="s">
+      <c r="C18" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="156"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -3740,10 +3740,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="155" t="s">
+      <c r="C19" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="156"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -3872,11 +3872,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="G1:Q1"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -3886,6 +3881,11 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="G1:Q1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -3932,29 +3932,29 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="158" t="s">
+      <c r="G1" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="158"/>
+      <c r="H1" s="156"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="158" t="s">
+      <c r="N1" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
       <c r="AB1" s="9"/>
@@ -4684,10 +4684,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="156"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -4799,10 +4799,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="156"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -4914,10 +4914,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="156"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -5028,10 +5028,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="156"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -5143,10 +5143,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="156"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -5258,10 +5258,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="155" t="s">
+      <c r="C13" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="156"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -5376,10 +5376,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="155" t="s">
+      <c r="C14" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="156"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -5494,10 +5494,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="155" t="s">
+      <c r="C15" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="156"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -5612,10 +5612,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="155" t="s">
+      <c r="C16" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="156"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -5730,10 +5730,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="155" t="s">
+      <c r="C17" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="156"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -5848,10 +5848,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="155" t="s">
+      <c r="C18" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="156"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -5966,10 +5966,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="155" t="s">
+      <c r="C19" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="156"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -6461,6 +6461,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -6469,12 +6475,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -6520,10 +6520,10 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="158" t="s">
+      <c r="G1" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="158"/>
+      <c r="H1" s="156"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -7274,10 +7274,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="156"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -7389,10 +7389,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="156"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -7504,10 +7504,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="156"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -7618,10 +7618,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="156"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -7733,10 +7733,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="156"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -7848,10 +7848,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="155" t="s">
+      <c r="C13" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="156"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -7966,10 +7966,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="155" t="s">
+      <c r="C14" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="156"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -8084,10 +8084,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="155" t="s">
+      <c r="C15" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="156"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -8202,10 +8202,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="155" t="s">
+      <c r="C16" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="156"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -8320,10 +8320,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="155" t="s">
+      <c r="C17" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="156"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -8438,10 +8438,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="155" t="s">
+      <c r="C18" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="156"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -8556,10 +8556,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="155" t="s">
+      <c r="C19" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="156"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -9054,10 +9054,10 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="158" t="s">
+      <c r="G1" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="158"/>
+      <c r="H1" s="156"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -9808,10 +9808,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="156"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -9923,10 +9923,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="156"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -10038,10 +10038,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="156"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -10152,10 +10152,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="156"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -10267,10 +10267,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="156"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -10382,10 +10382,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="155" t="s">
+      <c r="C13" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="156"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -10500,10 +10500,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="155" t="s">
+      <c r="C14" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="156"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -10618,10 +10618,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="155" t="s">
+      <c r="C15" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="156"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -10736,10 +10736,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="155" t="s">
+      <c r="C16" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="156"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -10854,10 +10854,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="155" t="s">
+      <c r="C17" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="156"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -10972,10 +10972,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="155" t="s">
+      <c r="C18" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="156"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -11090,10 +11090,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="155" t="s">
+      <c r="C19" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="156"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -11596,10 +11596,10 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="158" t="s">
+      <c r="G1" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="158"/>
+      <c r="H1" s="156"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -12350,10 +12350,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="156"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -12465,10 +12465,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="156"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -12580,10 +12580,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="156"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -12694,10 +12694,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="156"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -12809,10 +12809,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="156"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -12924,10 +12924,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="155" t="s">
+      <c r="C13" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="156"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -13042,10 +13042,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="155" t="s">
+      <c r="C14" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="156"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -13160,10 +13160,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="155" t="s">
+      <c r="C15" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="156"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -13278,10 +13278,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="155" t="s">
+      <c r="C16" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="156"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -13396,10 +13396,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="155" t="s">
+      <c r="C17" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="156"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -13514,10 +13514,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="155" t="s">
+      <c r="C18" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="156"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -13632,10 +13632,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="155" t="s">
+      <c r="C19" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="156"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -14520,10 +14520,10 @@
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="156"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="118" t="s">
         <v>1</v>
       </c>
@@ -14598,10 +14598,10 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="156"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="121" t="s">
         <v>17</v>
       </c>
@@ -14676,10 +14676,10 @@
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="156"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="118" t="s">
         <v>13</v>
       </c>
@@ -14753,10 +14753,10 @@
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="156"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="119" t="s">
         <v>107</v>
       </c>
@@ -14831,10 +14831,10 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="155" t="s">
+      <c r="C13" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="156"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="120" t="s">
         <v>108</v>
       </c>
@@ -14909,10 +14909,10 @@
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14" s="155" t="s">
+      <c r="C14" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="156"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="118" t="s">
         <v>1</v>
       </c>
@@ -14990,10 +14990,10 @@
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15" s="155" t="s">
+      <c r="C15" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="156"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="121" t="s">
         <v>17</v>
       </c>
@@ -15071,10 +15071,10 @@
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="C16" s="155" t="s">
+      <c r="C16" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="156"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="54" t="s">
         <v>14</v>
       </c>
@@ -15152,10 +15152,10 @@
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17" s="155" t="s">
+      <c r="C17" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="156"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="53" t="s">
         <v>12</v>
       </c>
@@ -15233,10 +15233,10 @@
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="C18" s="155" t="s">
+      <c r="C18" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="156"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="118" t="s">
         <v>13</v>
       </c>
@@ -15314,10 +15314,10 @@
       <c r="B19">
         <v>16</v>
       </c>
-      <c r="C19" s="155" t="s">
+      <c r="C19" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="156"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="119" t="s">
         <v>107</v>
       </c>
@@ -15395,10 +15395,10 @@
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="C20" s="155" t="s">
+      <c r="C20" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="156"/>
+      <c r="D20" s="159"/>
       <c r="E20" s="120" t="s">
         <v>108</v>
       </c>
@@ -15578,29 +15578,29 @@
   <sheetData>
     <row r="1" spans="1:40" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="5"/>
-      <c r="G1" s="158" t="s">
+      <c r="G1" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="158"/>
+      <c r="H1" s="156"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="158" t="s">
+      <c r="N1" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="158"/>
-      <c r="V1" s="158"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="158"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
       <c r="AB1" s="9"/>
@@ -16330,10 +16330,10 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="156"/>
+      <c r="D8" s="159"/>
       <c r="E8" s="118" t="s">
         <v>1</v>
       </c>
@@ -16445,10 +16445,10 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="156"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="121" t="s">
         <v>17</v>
       </c>
@@ -16560,10 +16560,10 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="156"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
@@ -16674,10 +16674,10 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="156"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="119" t="s">
         <v>107</v>
       </c>
@@ -16789,10 +16789,10 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="156"/>
+      <c r="D12" s="159"/>
       <c r="E12" s="120" t="s">
         <v>108</v>
       </c>
@@ -16904,10 +16904,10 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="155" t="s">
+      <c r="C13" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="156"/>
+      <c r="D13" s="159"/>
       <c r="E13" s="118" t="s">
         <v>1</v>
       </c>
@@ -17022,10 +17022,10 @@
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="155" t="s">
+      <c r="C14" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="156"/>
+      <c r="D14" s="159"/>
       <c r="E14" s="121" t="s">
         <v>17</v>
       </c>
@@ -17140,10 +17140,10 @@
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="155" t="s">
+      <c r="C15" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="156"/>
+      <c r="D15" s="159"/>
       <c r="E15" s="54" t="s">
         <v>14</v>
       </c>
@@ -17258,10 +17258,10 @@
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16" s="155" t="s">
+      <c r="C16" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="156"/>
+      <c r="D16" s="159"/>
       <c r="E16" s="53" t="s">
         <v>12</v>
       </c>
@@ -17376,10 +17376,10 @@
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17" s="155" t="s">
+      <c r="C17" s="158" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="156"/>
+      <c r="D17" s="159"/>
       <c r="E17" s="118" t="s">
         <v>13</v>
       </c>
@@ -17494,10 +17494,10 @@
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="155" t="s">
+      <c r="C18" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="156"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="119" t="s">
         <v>107</v>
       </c>
@@ -17612,10 +17612,10 @@
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="155" t="s">
+      <c r="C19" s="158" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="156"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="120" t="s">
         <v>108</v>
       </c>
@@ -18083,8 +18083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CE001F-6A65-4E9D-B5FC-C016A6BDF4C9}">
   <dimension ref="A1:BA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="BA17" sqref="BA17"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="BA11" sqref="BA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
